--- a/Ejercicios Módulo 2.xlsx
+++ b/Ejercicios Módulo 2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20389"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hca\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marcelino Sánchez\Downloads\matesFin2-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D6B4AA4-C7AB-4BB3-8A67-A030B5535AAA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09CF95C8-A26C-4F86-8F56-AE1A1864E0E9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11775" firstSheet="1" activeTab="1" xr2:uid="{8D28922E-168D-49DA-9D4A-95AFF78636AC}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="6" xr2:uid="{8D28922E-168D-49DA-9D4A-95AFF78636AC}"/>
   </bookViews>
   <sheets>
     <sheet name="1 - Frontera Eficiente (2Act)" sheetId="1" r:id="rId1"/>
@@ -83,17 +83,23 @@
     <definedName name="solver_ver" localSheetId="2" hidden="1">3</definedName>
     <definedName name="solver_ver" localSheetId="3" hidden="1">3</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="109">
   <si>
     <t>Precios - Rendimientos de Activos</t>
   </si>
@@ -767,8 +773,8 @@
     <numFmt numFmtId="168" formatCode="#,##0.0000"/>
     <numFmt numFmtId="169" formatCode="0.0"/>
     <numFmt numFmtId="170" formatCode="#,##0.00000"/>
-    <numFmt numFmtId="172" formatCode="0.00000000000000%"/>
-    <numFmt numFmtId="186" formatCode="0.0000"/>
+    <numFmt numFmtId="171" formatCode="0.00000000000000%"/>
+    <numFmt numFmtId="172" formatCode="0.0000"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -1266,9 +1272,6 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1356,6 +1359,13 @@
     <xf numFmtId="170" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1392,19 +1402,53 @@
     <xf numFmtId="0" fontId="12" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="186" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="12">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -2156,6 +2200,39 @@
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>5.5528907029841888E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.1007064367961444E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.6891878419738874E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.3299450975866335E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.0369582542763606E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.8254809911019386E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.7094801721604072E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.6979517235730452E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.7918486546748162E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.9837232531763904E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.2603581027531083E-2</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -2165,6 +2242,39 @@
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1.1963025818933619E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.1777751601452183E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.1592477383970746E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.1407203166489308E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.122192894900787E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.1036654731526433E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.0851380514044997E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.0666106296563558E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.0480832079082122E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.0295557861600683E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.0110283644119247E-2</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -2435,6 +2545,39 @@
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>5.9339874441801027E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.3944132115092851E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.8955460740178737E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.4510941785885404E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.0788844023831886E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.8002035612387942E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.636617494761616E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.6038336611263808E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.7053256089628596E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.9307059464314398E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.2603581027531083E-2</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -2444,6 +2587,39 @@
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>7.3975666620683537E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.6688383602734429E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.940110058478533E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.2113817566836222E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.4826534548887098E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.7539251530938007E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.02519685129889E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.2964685495039792E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.5677402477090685E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.8390119459141577E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.0110283644119247E-2</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -2714,6 +2890,39 @@
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>5.9339874441801027E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.5285043285903133E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.1819000215534386E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.9066679278394407E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.7153225842332183E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.6183025660138884E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.6215521967949327E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.7248645930575234E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.9219427806849E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.2021409677672839E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.5528907029841888E-2</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -2723,6 +2932,39 @@
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>7.3975666620683537E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.8541125777548803E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.3106584934414078E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.7672044091279336E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.2237503248144594E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.6802962405009869E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.0136842156187513E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.059338807187404E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.1049933987560568E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.1506479903247093E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.1963025818933619E-2</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -2991,8 +3233,41 @@
             <c:numRef>
               <c:f>'2 - Frontera Eficiente (3Act)'!$AA$29:$AK$29</c:f>
               <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
+                <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>3.3976899897269319E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.4079693865273847E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.4469377394564675E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.5136406456601189E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.6065395826116529E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.7236744355567113E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.8628410800933453E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.0217530363087978E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.1981686634800085E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.3899782614446041E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.5952545644230659E-2</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -3002,6 +3277,39 @@
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>9.8026528335693978E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.8952899423101169E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.9879270510508343E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0080564159791553E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0173201268532273E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0265838377272992E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.0358475486013709E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.0451112594754428E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.0543749703495146E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.0636386812235865E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.0729023920976584E-2</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -3030,7 +3338,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3441,103 +3749,103 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="33"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>5.5528907029841888E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>5.1007064367961444E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>4.6891878419738874E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>4.3299450975866335E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>4.0369582542763606E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>3.8254809911019386E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>3.7094801721604072E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>3.6979517235730452E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>3.7918486546748162E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>3.9837232531763904E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>4.2603581027531083E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>5.9339874441801027E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>5.3944132115092851E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>4.8955460740178737E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>4.4510941785885404E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>4.0788844023831886E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>3.8002035612387942E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0</c:v>
+                  <c:v>3.636617494761616E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0</c:v>
+                  <c:v>3.6038336611263808E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0</c:v>
+                  <c:v>3.7053256089628596E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0</c:v>
+                  <c:v>3.9307059464314398E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0</c:v>
+                  <c:v>4.2603581027531083E-2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0</c:v>
+                  <c:v>5.9339874441801027E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0</c:v>
+                  <c:v>5.5285043285903133E-2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0</c:v>
+                  <c:v>5.1819000215534386E-2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0</c:v>
+                  <c:v>4.9066679278394407E-2</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0</c:v>
+                  <c:v>4.7153225842332183E-2</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0</c:v>
+                  <c:v>4.6183025660138884E-2</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0</c:v>
+                  <c:v>4.6215521967949327E-2</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0</c:v>
+                  <c:v>4.7248645930575234E-2</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0</c:v>
+                  <c:v>4.9219427806849E-2</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0</c:v>
+                  <c:v>5.2021409677672839E-2</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0</c:v>
+                  <c:v>5.5528907029841888E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3549,103 +3857,103 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="33"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1.1963025818933619E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>1.1777751601452183E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>1.1592477383970746E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>1.1407203166489308E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>1.122192894900787E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>1.1036654731526433E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>1.0851380514044997E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>1.0666106296563558E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>1.0480832079082122E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>1.0295557861600683E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>1.0110283644119247E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>7.3975666620683537E-3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>7.6688383602734429E-3</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>7.940110058478533E-3</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>8.2113817566836222E-3</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>8.4826534548887098E-3</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>8.7539251530938007E-3</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0</c:v>
+                  <c:v>9.02519685129889E-3</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0</c:v>
+                  <c:v>9.2964685495039792E-3</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0</c:v>
+                  <c:v>9.5677402477090685E-3</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0</c:v>
+                  <c:v>9.8390119459141577E-3</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0</c:v>
+                  <c:v>1.0110283644119247E-2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0</c:v>
+                  <c:v>7.3975666620683537E-3</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0</c:v>
+                  <c:v>7.8541125777548803E-3</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0</c:v>
+                  <c:v>8.3106584934414078E-3</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0</c:v>
+                  <c:v>8.7672044091279336E-3</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0</c:v>
+                  <c:v>9.2237503248144594E-3</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0</c:v>
+                  <c:v>9.6802962405009869E-3</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0</c:v>
+                  <c:v>1.0136842156187513E-2</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0</c:v>
+                  <c:v>1.059338807187404E-2</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0</c:v>
+                  <c:v>1.1049933987560568E-2</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0</c:v>
+                  <c:v>1.1506479903247093E-2</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0</c:v>
+                  <c:v>1.1963025818933619E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9875,6 +10183,360 @@
     </mc:AlternateContent>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>214312</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="206082" cy="181012"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="8" name="CuadroTexto 7">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE349E1A-2D0F-484A-BCB8-44A77ACA7ADF}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3531870" y="1143952"/>
+              <a:ext cx="206082" cy="181012"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSubSup>
+                      <m:sSubSupPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1100" i="1">
+                            <a:solidFill>
+                              <a:sysClr val="windowText" lastClr="000000"/>
+                            </a:solidFill>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubSupPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" i="1">
+                            <a:solidFill>
+                              <a:sysClr val="windowText" lastClr="000000"/>
+                            </a:solidFill>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝜎</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:sysClr val="windowText" lastClr="000000"/>
+                            </a:solidFill>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑒𝑖</m:t>
+                        </m:r>
+                      </m:sub>
+                      <m:sup>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:sysClr val="windowText" lastClr="000000"/>
+                            </a:solidFill>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>2</m:t>
+                        </m:r>
+                      </m:sup>
+                    </m:sSubSup>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="8" name="CuadroTexto 7">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE349E1A-2D0F-484A-BCB8-44A77ACA7ADF}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3531870" y="1143952"/>
+              <a:ext cx="206082" cy="181012"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝜎_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑒𝑖^2</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="208647" cy="175369"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="9" name="CuadroTexto 8">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3220DA55-C196-44B0-8A8F-AA6CAFFC141D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2758440" y="764857"/>
+              <a:ext cx="208647" cy="175369"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSubSup>
+                      <m:sSubSupPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubSupPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝜎</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑚</m:t>
+                        </m:r>
+                      </m:sub>
+                      <m:sup>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>2</m:t>
+                        </m:r>
+                      </m:sup>
+                    </m:sSubSup>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="9" name="CuadroTexto 8">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3220DA55-C196-44B0-8A8F-AA6CAFFC141D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2758440" y="764857"/>
+              <a:ext cx="208647" cy="175369"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝜎_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑚^2</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -10178,44 +10840,44 @@
   <dimension ref="A3:S28"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="F1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="S5" sqref="S5:S15"/>
+      <selection activeCell="R5" sqref="R5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="7.28515625" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" customWidth="1"/>
+    <col min="3" max="3" width="7.33203125" customWidth="1"/>
+    <col min="4" max="4" width="12.109375" customWidth="1"/>
     <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.44140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11" customWidth="1"/>
-    <col min="10" max="10" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="28.42578125" customWidth="1"/>
-    <col min="14" max="14" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="28.44140625" customWidth="1"/>
+    <col min="14" max="14" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D3" s="58" t="s">
+    <row r="3" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D3" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="59"/>
-      <c r="F3" s="59"/>
-      <c r="G3" s="59"/>
-      <c r="H3" s="59"/>
-      <c r="J3" s="60" t="s">
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="63"/>
+      <c r="J3" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="K3" s="60"/>
-      <c r="N3" s="61" t="s">
+      <c r="K3" s="64"/>
+      <c r="N3" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="O3" s="61"/>
-      <c r="P3" s="61"/>
-      <c r="Q3" s="61"/>
-      <c r="R3" s="61"/>
-      <c r="S3" s="61"/>
-    </row>
-    <row r="4" spans="1:19" ht="18.75" x14ac:dyDescent="0.35">
+      <c r="O3" s="65"/>
+      <c r="P3" s="65"/>
+      <c r="Q3" s="65"/>
+      <c r="R3" s="65"/>
+      <c r="S3" s="65"/>
+    </row>
+    <row r="4" spans="1:19" ht="16.8" x14ac:dyDescent="0.35">
       <c r="D4" s="1" t="s">
         <v>3</v>
       </c>
@@ -10252,7 +10914,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="D5" s="4">
         <v>43282</v>
       </c>
@@ -10293,9 +10955,9 @@
         <v>4.3768926393598286E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="72"/>
-      <c r="B6" s="72"/>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A6" s="59"/>
+      <c r="B6" s="59"/>
       <c r="D6" s="4">
         <v>43313</v>
       </c>
@@ -10313,7 +10975,7 @@
         <f>F6/F5 -1</f>
         <v>1.8618280495783068E-2</v>
       </c>
-      <c r="I6" s="70"/>
+      <c r="I6" s="57"/>
       <c r="J6" s="2" t="s">
         <v>9</v>
       </c>
@@ -10343,9 +11005,9 @@
         <v>4.2524949060707723E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="72"/>
-      <c r="B7" s="72"/>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A7" s="59"/>
+      <c r="B7" s="59"/>
       <c r="D7" s="4">
         <v>43344</v>
       </c>
@@ -10363,7 +11025,7 @@
         <f t="shared" ref="H7:H28" si="5">F7/F6 -1</f>
         <v>2.6255970094366532E-3</v>
       </c>
-      <c r="I7" s="70"/>
+      <c r="I7" s="57"/>
       <c r="N7" s="2" t="s">
         <v>15</v>
       </c>
@@ -10387,9 +11049,9 @@
         <v>4.3709842353366134E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="72"/>
-      <c r="B8" s="72"/>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A8" s="59"/>
+      <c r="B8" s="59"/>
       <c r="D8" s="4">
         <v>43374</v>
       </c>
@@ -10407,7 +11069,7 @@
         <f t="shared" si="5"/>
         <v>1.0612241960185731E-2</v>
       </c>
-      <c r="I8" s="70"/>
+      <c r="I8" s="57"/>
       <c r="N8" s="2" t="s">
         <v>16</v>
       </c>
@@ -10431,9 +11093,9 @@
         <v>4.7140810297121784E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="72"/>
-      <c r="B9" s="72"/>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A9" s="59"/>
+      <c r="B9" s="59"/>
       <c r="D9" s="4">
         <v>43405</v>
       </c>
@@ -10451,11 +11113,11 @@
         <f t="shared" si="5"/>
         <v>5.1898230867548856E-2</v>
       </c>
-      <c r="I9" s="70"/>
+      <c r="I9" s="57"/>
       <c r="J9" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="K9" s="29">
+      <c r="K9" s="28">
         <f>POWER(1+AVERAGE(G6:G28),12)-1</f>
         <v>0.50896228267337684</v>
       </c>
@@ -10486,9 +11148,9 @@
         <v>5.2378319210863354E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A10" s="72"/>
-      <c r="B10" s="72"/>
+    <row r="10" spans="1:19" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A10" s="59"/>
+      <c r="B10" s="59"/>
       <c r="D10" s="4">
         <v>43435</v>
       </c>
@@ -10506,7 +11168,7 @@
         <f t="shared" si="5"/>
         <v>-3.9900977573007923E-2</v>
       </c>
-      <c r="I10" s="70"/>
+      <c r="I10" s="57"/>
       <c r="J10" s="13" t="s">
         <v>19</v>
       </c>
@@ -10541,9 +11203,9 @@
         <v>5.8942745967707863E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="72"/>
-      <c r="B11" s="72"/>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A11" s="59"/>
+      <c r="B11" s="59"/>
       <c r="D11" s="4">
         <v>43466</v>
       </c>
@@ -10561,7 +11223,7 @@
         <f t="shared" si="5"/>
         <v>5.0150994379753344E-2</v>
       </c>
-      <c r="I11" s="70"/>
+      <c r="I11" s="57"/>
       <c r="J11" s="13" t="s">
         <v>12</v>
       </c>
@@ -10596,9 +11258,9 @@
         <v>6.6441951597203674E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="72"/>
-      <c r="B12" s="72"/>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A12" s="59"/>
+      <c r="B12" s="59"/>
       <c r="D12" s="4">
         <v>43497</v>
       </c>
@@ -10616,15 +11278,15 @@
         <f t="shared" si="5"/>
         <v>5.1171322291039711E-2</v>
       </c>
-      <c r="I12" s="70"/>
+      <c r="I12" s="57"/>
       <c r="J12" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="K12" s="62">
+      <c r="K12" s="66">
         <f>_xlfn.COVARIANCE.S(G6:G28,H6:H28)</f>
         <v>8.5516416505410824E-4</v>
       </c>
-      <c r="L12" s="63"/>
+      <c r="L12" s="67"/>
       <c r="N12" s="2" t="s">
         <v>23</v>
       </c>
@@ -10648,9 +11310,9 @@
         <v>7.4594538760215823E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="72"/>
-      <c r="B13" s="72"/>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A13" s="59"/>
+      <c r="B13" s="59"/>
       <c r="D13" s="4">
         <v>43525</v>
       </c>
@@ -10668,15 +11330,15 @@
         <f t="shared" si="5"/>
         <v>2.0956012315558548E-2</v>
       </c>
-      <c r="I13" s="70"/>
+      <c r="I13" s="57"/>
       <c r="J13" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="K13" s="62">
+      <c r="K13" s="66">
         <f>CORREL(G6:G28,H6:H28)</f>
         <v>0.19278731831946042</v>
       </c>
-      <c r="L13" s="63"/>
+      <c r="L13" s="67"/>
       <c r="N13" s="2" t="s">
         <v>25</v>
       </c>
@@ -10700,9 +11362,9 @@
         <v>8.3208678301162201E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="72"/>
-      <c r="B14" s="72"/>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A14" s="59"/>
+      <c r="B14" s="59"/>
       <c r="D14" s="4">
         <v>43556</v>
       </c>
@@ -10720,7 +11382,7 @@
         <f t="shared" si="5"/>
         <v>1.7995915230728521E-4</v>
       </c>
-      <c r="I14" s="70"/>
+      <c r="I14" s="57"/>
       <c r="N14" s="2" t="s">
         <v>26</v>
       </c>
@@ -10744,9 +11406,9 @@
         <v>9.21550309390433E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" s="72"/>
-      <c r="B15" s="72"/>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A15" s="59"/>
+      <c r="B15" s="59"/>
       <c r="D15" s="4">
         <v>43586</v>
       </c>
@@ -10764,7 +11426,7 @@
         <f t="shared" si="5"/>
         <v>1.0081068942597415E-2</v>
       </c>
-      <c r="I15" s="70"/>
+      <c r="I15" s="57"/>
       <c r="N15" s="2" t="s">
         <v>27</v>
       </c>
@@ -10788,9 +11450,9 @@
         <v>0.10134565585706436</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A16" s="72"/>
-      <c r="B16" s="72"/>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A16" s="59"/>
+      <c r="B16" s="59"/>
       <c r="D16" s="4">
         <v>43617</v>
       </c>
@@ -10808,12 +11470,12 @@
         <f t="shared" si="5"/>
         <v>3.9319891827776621E-2</v>
       </c>
-      <c r="I16" s="70"/>
-      <c r="K16" s="71"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="72"/>
-      <c r="B17" s="72"/>
+      <c r="I16" s="57"/>
+      <c r="K16" s="58"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="59"/>
+      <c r="B17" s="59"/>
       <c r="D17" s="4">
         <v>43647</v>
       </c>
@@ -10831,11 +11493,11 @@
         <f t="shared" si="5"/>
         <v>5.3531692141304266E-3</v>
       </c>
-      <c r="I17" s="70"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="72"/>
-      <c r="B18" s="72"/>
+      <c r="I17" s="57"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="59"/>
+      <c r="B18" s="59"/>
       <c r="D18" s="4">
         <v>43678</v>
       </c>
@@ -10853,11 +11515,11 @@
         <f t="shared" si="5"/>
         <v>8.2961111604580973E-2</v>
       </c>
-      <c r="I18" s="70"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="72"/>
-      <c r="B19" s="72"/>
+      <c r="I18" s="57"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="59"/>
+      <c r="B19" s="59"/>
       <c r="D19" s="4">
         <v>43709</v>
       </c>
@@ -10875,11 +11537,11 @@
         <f t="shared" si="5"/>
         <v>2.0991017184629035E-2</v>
       </c>
-      <c r="I19" s="70"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="72"/>
-      <c r="B20" s="72"/>
+      <c r="I19" s="57"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="59"/>
+      <c r="B20" s="59"/>
       <c r="D20" s="4">
         <v>43739</v>
       </c>
@@ -10897,11 +11559,11 @@
         <f t="shared" si="5"/>
         <v>-4.6919441412107687E-4</v>
       </c>
-      <c r="I20" s="70"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="72"/>
-      <c r="B21" s="72"/>
+      <c r="I20" s="57"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" s="59"/>
+      <c r="B21" s="59"/>
       <c r="D21" s="4">
         <v>43770</v>
       </c>
@@ -10919,11 +11581,11 @@
         <f t="shared" si="5"/>
         <v>-3.5206003214860893E-2</v>
       </c>
-      <c r="I21" s="70"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="72"/>
-      <c r="B22" s="72"/>
+      <c r="I21" s="57"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" s="59"/>
+      <c r="B22" s="59"/>
       <c r="D22" s="4">
         <v>43800</v>
       </c>
@@ -10941,11 +11603,11 @@
         <f t="shared" si="5"/>
         <v>2.5122340864833115E-2</v>
       </c>
-      <c r="I22" s="70"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="72"/>
-      <c r="B23" s="72"/>
+      <c r="I22" s="57"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" s="59"/>
+      <c r="B23" s="59"/>
       <c r="D23" s="4">
         <v>43831</v>
       </c>
@@ -10963,11 +11625,11 @@
         <f t="shared" si="5"/>
         <v>9.0229222699250933E-2</v>
       </c>
-      <c r="I23" s="70"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="72"/>
-      <c r="B24" s="72"/>
+      <c r="I23" s="57"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" s="59"/>
+      <c r="B24" s="59"/>
       <c r="D24" s="4">
         <v>43862</v>
       </c>
@@ -10985,11 +11647,11 @@
         <f t="shared" si="5"/>
         <v>-0.11808499798399108</v>
       </c>
-      <c r="I24" s="70"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="72"/>
-      <c r="B25" s="72"/>
+      <c r="I24" s="57"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" s="59"/>
+      <c r="B25" s="59"/>
       <c r="D25" s="4">
         <v>43891</v>
       </c>
@@ -11007,11 +11669,11 @@
         <f t="shared" si="5"/>
         <v>-2.1762591486123473E-2</v>
       </c>
-      <c r="I25" s="70"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="72"/>
-      <c r="B26" s="72"/>
+      <c r="I25" s="57"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" s="59"/>
+      <c r="B26" s="59"/>
       <c r="D26" s="4">
         <v>43922</v>
       </c>
@@ -11029,11 +11691,11 @@
         <f t="shared" si="5"/>
         <v>-2.8255335379918756E-2</v>
       </c>
-      <c r="I26" s="70"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="72"/>
-      <c r="B27" s="72"/>
+      <c r="I26" s="57"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27" s="59"/>
+      <c r="B27" s="59"/>
       <c r="D27" s="4">
         <v>43952</v>
       </c>
@@ -11051,11 +11713,11 @@
         <f t="shared" si="5"/>
         <v>2.609916334118445E-2</v>
       </c>
-      <c r="I27" s="70"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="72"/>
-      <c r="B28" s="72"/>
+      <c r="I27" s="57"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28" s="59"/>
+      <c r="B28" s="59"/>
       <c r="D28" s="4">
         <v>43983</v>
       </c>
@@ -11073,7 +11735,7 @@
         <f t="shared" si="5"/>
         <v>4.7727023467925012E-3</v>
       </c>
-      <c r="I28" s="70"/>
+      <c r="I28" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -11092,50 +11754,50 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{101960C9-DF6F-41DC-8682-A5356BA7E43B}">
   <dimension ref="D3:CC65"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="Q1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AA9" sqref="AA9"/>
+    <sheetView showGridLines="0" topLeftCell="BO1" zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AV6" sqref="AV6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" customWidth="1"/>
-    <col min="17" max="17" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.44140625" customWidth="1"/>
+    <col min="17" max="17" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.109375" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="4:81" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D3" s="58" t="s">
+    <row r="3" spans="4:81" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D3" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="59"/>
-      <c r="F3" s="59"/>
-      <c r="G3" s="59"/>
-      <c r="H3" s="59"/>
-      <c r="I3" s="59"/>
-      <c r="J3" s="59"/>
-      <c r="K3" s="59"/>
-      <c r="L3" s="59"/>
-      <c r="M3" s="59"/>
-      <c r="N3" s="59"/>
-      <c r="O3" s="59"/>
-      <c r="P3" s="59"/>
-      <c r="Q3" s="59"/>
-      <c r="R3" s="59"/>
-      <c r="S3" s="59"/>
-      <c r="U3" s="64" t="s">
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="63"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="63"/>
+      <c r="K3" s="63"/>
+      <c r="L3" s="63"/>
+      <c r="M3" s="63"/>
+      <c r="N3" s="63"/>
+      <c r="O3" s="63"/>
+      <c r="P3" s="63"/>
+      <c r="Q3" s="63"/>
+      <c r="R3" s="63"/>
+      <c r="S3" s="63"/>
+      <c r="U3" s="68" t="s">
         <v>28</v>
       </c>
-      <c r="V3" s="64"/>
-      <c r="W3" s="64"/>
-      <c r="X3" s="64"/>
-    </row>
-    <row r="4" spans="4:81" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="V3" s="68"/>
+      <c r="W3" s="68"/>
+      <c r="X3" s="68"/>
+    </row>
+    <row r="4" spans="4:81" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D4" s="1" t="s">
         <v>3</v>
       </c>
@@ -11333,7 +11995,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="4:81" ht="18" x14ac:dyDescent="0.35">
+    <row r="5" spans="4:81" ht="15.6" x14ac:dyDescent="0.35">
       <c r="D5" s="4">
         <v>44349</v>
       </c>
@@ -11349,15 +12011,15 @@
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
       <c r="J5" s="6"/>
-      <c r="K5" s="73">
+      <c r="K5" s="60">
         <f>E5-AVERAGE(E$5:E$65)</f>
         <v>-19.099672131147528</v>
       </c>
-      <c r="L5" s="73">
+      <c r="L5" s="60">
         <f t="shared" ref="L5:M20" si="0">F5-AVERAGE(F$5:F$65)</f>
         <v>-9.756393442622965</v>
       </c>
-      <c r="M5" s="73">
+      <c r="M5" s="60">
         <f t="shared" si="0"/>
         <v>-22.592131147540961</v>
       </c>
@@ -11441,139 +12103,139 @@
       </c>
       <c r="AV5" s="19">
         <f>+AA8</f>
-        <v>0</v>
+        <v>5.5528907029841888E-2</v>
       </c>
       <c r="AW5" s="19">
-        <f t="shared" ref="AW5:BF6" si="1">+AB8</f>
-        <v>0</v>
+        <f>+AB8</f>
+        <v>5.1007064367961444E-2</v>
       </c>
       <c r="AX5" s="19">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" ref="AW5:BF6" si="1">+AC8</f>
+        <v>4.6891878419738874E-2</v>
       </c>
       <c r="AY5" s="19">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4.3299450975866335E-2</v>
       </c>
       <c r="AZ5" s="19">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4.0369582542763606E-2</v>
       </c>
       <c r="BA5" s="19">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3.8254809911019386E-2</v>
       </c>
       <c r="BB5" s="19">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3.7094801721604072E-2</v>
       </c>
       <c r="BC5" s="19">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3.6979517235730452E-2</v>
       </c>
       <c r="BD5" s="19">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3.7918486546748162E-2</v>
       </c>
       <c r="BE5" s="19">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3.9837232531763904E-2</v>
       </c>
       <c r="BF5" s="19">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4.2603581027531083E-2</v>
       </c>
       <c r="BG5" s="19">
         <f>+AA15</f>
-        <v>0</v>
+        <v>5.9339874441801027E-2</v>
       </c>
       <c r="BH5" s="19">
         <f t="shared" ref="BH5:BQ6" si="2">+AB15</f>
-        <v>0</v>
+        <v>5.3944132115092851E-2</v>
       </c>
       <c r="BI5" s="19">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>4.8955460740178737E-2</v>
       </c>
       <c r="BJ5" s="19">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>4.4510941785885404E-2</v>
       </c>
       <c r="BK5" s="19">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>4.0788844023831886E-2</v>
       </c>
       <c r="BL5" s="19">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>3.8002035612387942E-2</v>
       </c>
       <c r="BM5" s="19">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>3.636617494761616E-2</v>
       </c>
       <c r="BN5" s="19">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>3.6038336611263808E-2</v>
       </c>
       <c r="BO5" s="19">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>3.7053256089628596E-2</v>
       </c>
       <c r="BP5" s="19">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>3.9307059464314398E-2</v>
       </c>
       <c r="BQ5" s="19">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>4.2603581027531083E-2</v>
       </c>
       <c r="BR5" s="19">
         <f>+AA22</f>
-        <v>0</v>
+        <v>5.9339874441801027E-2</v>
       </c>
       <c r="BS5" s="19">
         <f t="shared" ref="BS5:CB6" si="3">+AB22</f>
-        <v>0</v>
+        <v>5.5285043285903133E-2</v>
       </c>
       <c r="BT5" s="19">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>5.1819000215534386E-2</v>
       </c>
       <c r="BU5" s="19">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>4.9066679278394407E-2</v>
       </c>
       <c r="BV5" s="19">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>4.7153225842332183E-2</v>
       </c>
       <c r="BW5" s="19">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>4.6183025660138884E-2</v>
       </c>
       <c r="BX5" s="19">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>4.6215521967949327E-2</v>
       </c>
       <c r="BY5" s="19">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>4.7248645930575234E-2</v>
       </c>
       <c r="BZ5" s="19">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>4.9219427806849E-2</v>
       </c>
       <c r="CA5" s="19">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>5.2021409677672839E-2</v>
       </c>
       <c r="CB5" s="19">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>5.5528907029841888E-2</v>
       </c>
       <c r="CC5" s="20"/>
     </row>
-    <row r="6" spans="4:81" ht="18.75" x14ac:dyDescent="0.35">
+    <row r="6" spans="4:81" ht="16.8" x14ac:dyDescent="0.35">
       <c r="D6" s="4">
         <f>+WORKDAY(D5,1)</f>
         <v>44350</v>
@@ -11599,15 +12261,15 @@
         <f t="shared" si="4"/>
         <v>-5.2344601962922566E-2</v>
       </c>
-      <c r="K6" s="73">
+      <c r="K6" s="60">
         <f t="shared" ref="K6:K65" si="5">E6-AVERAGE(E$5:E$65)</f>
         <v>-17.999672131147527</v>
       </c>
-      <c r="L6" s="73">
+      <c r="L6" s="60">
         <f t="shared" si="0"/>
         <v>-11.556393442622966</v>
       </c>
-      <c r="M6" s="73">
+      <c r="M6" s="60">
         <f t="shared" si="0"/>
         <v>-24.99213114754096</v>
       </c>
@@ -11673,138 +12335,138 @@
       </c>
       <c r="AV6" s="19">
         <f>+AA9</f>
-        <v>0</v>
+        <v>1.1963025818933619E-2</v>
       </c>
       <c r="AW6" s="19">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1.1777751601452183E-2</v>
       </c>
       <c r="AX6" s="19">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1.1592477383970746E-2</v>
       </c>
       <c r="AY6" s="19">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1.1407203166489308E-2</v>
       </c>
       <c r="AZ6" s="19">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1.122192894900787E-2</v>
       </c>
       <c r="BA6" s="19">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1.1036654731526433E-2</v>
       </c>
       <c r="BB6" s="19">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1.0851380514044997E-2</v>
       </c>
       <c r="BC6" s="19">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1.0666106296563558E-2</v>
       </c>
       <c r="BD6" s="19">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1.0480832079082122E-2</v>
       </c>
       <c r="BE6" s="19">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1.0295557861600683E-2</v>
       </c>
       <c r="BF6" s="19">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1.0110283644119247E-2</v>
       </c>
       <c r="BG6" s="19">
         <f>+AA16</f>
-        <v>0</v>
+        <v>7.3975666620683537E-3</v>
       </c>
       <c r="BH6" s="19">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>7.6688383602734429E-3</v>
       </c>
       <c r="BI6" s="19">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>7.940110058478533E-3</v>
       </c>
       <c r="BJ6" s="19">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>8.2113817566836222E-3</v>
       </c>
       <c r="BK6" s="19">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>8.4826534548887098E-3</v>
       </c>
       <c r="BL6" s="19">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>8.7539251530938007E-3</v>
       </c>
       <c r="BM6" s="19">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>9.02519685129889E-3</v>
       </c>
       <c r="BN6" s="19">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>9.2964685495039792E-3</v>
       </c>
       <c r="BO6" s="19">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>9.5677402477090685E-3</v>
       </c>
       <c r="BP6" s="19">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>9.8390119459141577E-3</v>
       </c>
       <c r="BQ6" s="19">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1.0110283644119247E-2</v>
       </c>
       <c r="BR6" s="19">
         <f>+AA23</f>
-        <v>0</v>
+        <v>7.3975666620683537E-3</v>
       </c>
       <c r="BS6" s="19">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>7.8541125777548803E-3</v>
       </c>
       <c r="BT6" s="19">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>8.3106584934414078E-3</v>
       </c>
       <c r="BU6" s="19">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>8.7672044091279336E-3</v>
       </c>
       <c r="BV6" s="19">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>9.2237503248144594E-3</v>
       </c>
       <c r="BW6" s="19">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>9.6802962405009869E-3</v>
       </c>
       <c r="BX6" s="19">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1.0136842156187513E-2</v>
       </c>
       <c r="BY6" s="19">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1.059338807187404E-2</v>
       </c>
       <c r="BZ6" s="19">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1.1049933987560568E-2</v>
       </c>
       <c r="CA6" s="19">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1.1506479903247093E-2</v>
       </c>
       <c r="CB6" s="19">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="4:81" ht="18" x14ac:dyDescent="0.35">
+        <v>1.1963025818933619E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="4:81" ht="15.6" x14ac:dyDescent="0.35">
       <c r="D7" s="4">
         <f t="shared" ref="D7:D65" si="7">+WORKDAY(D6,1)</f>
         <v>44351</v>
@@ -11830,15 +12492,15 @@
         <f t="shared" si="4"/>
         <v>-2.0023014959723917E-2</v>
       </c>
-      <c r="K7" s="73">
+      <c r="K7" s="60">
         <f t="shared" si="5"/>
         <v>-15.859672131147526</v>
       </c>
-      <c r="L7" s="73">
+      <c r="L7" s="60">
         <f t="shared" si="0"/>
         <v>-12.736393442622965</v>
       </c>
-      <c r="M7" s="73">
+      <c r="M7" s="60">
         <f t="shared" si="0"/>
         <v>-25.862131147540964</v>
       </c>
@@ -11900,7 +12562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="4:81" x14ac:dyDescent="0.25">
+    <row r="8" spans="4:81" x14ac:dyDescent="0.3">
       <c r="D8" s="4">
         <f t="shared" si="7"/>
         <v>44354</v>
@@ -11926,15 +12588,15 @@
         <f t="shared" si="4"/>
         <v>6.9751056834194358E-2</v>
       </c>
-      <c r="K8" s="73">
+      <c r="K8" s="60">
         <f t="shared" si="5"/>
         <v>-19.529672131147528</v>
       </c>
-      <c r="L8" s="73">
+      <c r="L8" s="60">
         <f t="shared" si="0"/>
         <v>-9.2963934426229642</v>
       </c>
-      <c r="M8" s="73">
+      <c r="M8" s="60">
         <f t="shared" si="0"/>
         <v>-22.892131147540965</v>
       </c>
@@ -11947,19 +12609,52 @@
       <c r="Z8" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="AA8" s="21"/>
-      <c r="AB8" s="21"/>
-      <c r="AC8" s="21"/>
-      <c r="AD8" s="21"/>
-      <c r="AE8" s="21"/>
-      <c r="AF8" s="21"/>
-      <c r="AG8" s="21"/>
-      <c r="AH8" s="21"/>
-      <c r="AI8" s="21"/>
-      <c r="AJ8" s="21"/>
-      <c r="AK8" s="21"/>
-    </row>
-    <row r="9" spans="4:81" ht="18" x14ac:dyDescent="0.35">
+      <c r="AA8" s="21">
+        <f>POWER($V$6*POWER(AA5,2)+$W$6*POWER(AA6,2)+$X$6*POWER(AA7,2)+2*(_xlfn.COVARIANCE.S($H$6:$H$65,$I$6:$I$65)*AA5*AA6+_xlfn.COVARIANCE.S($H$6:$H$65,$J$6:$J$65)*AA5*AA7+_xlfn.COVARIANCE.S($I$6:$I$65,$J$6:$J$65)*AA6*AA7),0.5)</f>
+        <v>5.5528907029841888E-2</v>
+      </c>
+      <c r="AB8" s="21">
+        <f t="shared" ref="AB8:AK8" si="10">POWER($V$6*POWER(AB5,2)+$W$6*POWER(AB6,2)+$X$6*POWER(AB7,2)+2*(_xlfn.COVARIANCE.S($H$6:$H$65,$I$6:$I$65)*AB5*AB6+_xlfn.COVARIANCE.S($H$6:$H$65,$J$6:$J$65)*AB5*AB7+_xlfn.COVARIANCE.S($I$6:$I$65,$J$6:$J$65)*AB6*AB7),0.5)</f>
+        <v>5.1007064367961444E-2</v>
+      </c>
+      <c r="AC8" s="21">
+        <f t="shared" si="10"/>
+        <v>4.6891878419738874E-2</v>
+      </c>
+      <c r="AD8" s="21">
+        <f t="shared" si="10"/>
+        <v>4.3299450975866335E-2</v>
+      </c>
+      <c r="AE8" s="21">
+        <f>POWER($V$6*POWER(AE5,2)+$W$6*POWER(AE6,2)+$X$6*POWER(AE7,2)+2*(_xlfn.COVARIANCE.S($H$6:$H$65,$I$6:$I$65)*AE5*AE6+_xlfn.COVARIANCE.S($H$6:$H$65,$J$6:$J$65)*AE5*AE7+_xlfn.COVARIANCE.S($I$6:$I$65,$J$6:$J$65)*AE6*AE7),0.5)</f>
+        <v>4.0369582542763606E-2</v>
+      </c>
+      <c r="AF8" s="21">
+        <f t="shared" si="10"/>
+        <v>3.8254809911019386E-2</v>
+      </c>
+      <c r="AG8" s="21">
+        <f t="shared" si="10"/>
+        <v>3.7094801721604072E-2</v>
+      </c>
+      <c r="AH8" s="21">
+        <f t="shared" si="10"/>
+        <v>3.6979517235730452E-2</v>
+      </c>
+      <c r="AI8" s="21">
+        <f t="shared" si="10"/>
+        <v>3.7918486546748162E-2</v>
+      </c>
+      <c r="AJ8" s="21">
+        <f t="shared" si="10"/>
+        <v>3.9837232531763904E-2</v>
+      </c>
+      <c r="AK8" s="21">
+        <f t="shared" si="10"/>
+        <v>4.2603581027531083E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="4:81" ht="15.6" x14ac:dyDescent="0.35">
       <c r="D9" s="4">
         <f t="shared" si="7"/>
         <v>44355</v>
@@ -11985,15 +12680,15 @@
         <f>G9/G8-1</f>
         <v>6.4324917672886839E-2</v>
       </c>
-      <c r="K9" s="73">
+      <c r="K9" s="60">
         <f t="shared" si="5"/>
         <v>-14.419672131147529</v>
       </c>
-      <c r="L9" s="73">
+      <c r="L9" s="60">
         <f t="shared" si="0"/>
         <v>-7.8563934426229665</v>
       </c>
-      <c r="M9" s="73">
+      <c r="M9" s="60">
         <f t="shared" si="0"/>
         <v>-19.962131147540966</v>
       </c>
@@ -12016,19 +12711,52 @@
       <c r="Z9" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="AA9" s="22"/>
-      <c r="AB9" s="22"/>
-      <c r="AC9" s="22"/>
-      <c r="AD9" s="22"/>
-      <c r="AE9" s="22"/>
-      <c r="AF9" s="22"/>
-      <c r="AG9" s="22"/>
-      <c r="AH9" s="22"/>
-      <c r="AI9" s="22"/>
-      <c r="AJ9" s="22"/>
-      <c r="AK9" s="22"/>
-    </row>
-    <row r="10" spans="4:81" x14ac:dyDescent="0.25">
+      <c r="AA9" s="22">
+        <f>$V$5*AA5+$W$5*AA6+$X$5*AA7</f>
+        <v>1.1963025818933619E-2</v>
+      </c>
+      <c r="AB9" s="22">
+        <f t="shared" ref="AB9:AK9" si="11">$V$5*AB5+$W$5*AB6+$X$5*AB7</f>
+        <v>1.1777751601452183E-2</v>
+      </c>
+      <c r="AC9" s="22">
+        <f t="shared" si="11"/>
+        <v>1.1592477383970746E-2</v>
+      </c>
+      <c r="AD9" s="22">
+        <f t="shared" si="11"/>
+        <v>1.1407203166489308E-2</v>
+      </c>
+      <c r="AE9" s="22">
+        <f t="shared" si="11"/>
+        <v>1.122192894900787E-2</v>
+      </c>
+      <c r="AF9" s="22">
+        <f>$V$5*AF5+$W$5*AF6+$X$5*AF7</f>
+        <v>1.1036654731526433E-2</v>
+      </c>
+      <c r="AG9" s="22">
+        <f t="shared" si="11"/>
+        <v>1.0851380514044997E-2</v>
+      </c>
+      <c r="AH9" s="22">
+        <f t="shared" si="11"/>
+        <v>1.0666106296563558E-2</v>
+      </c>
+      <c r="AI9" s="22">
+        <f t="shared" si="11"/>
+        <v>1.0480832079082122E-2</v>
+      </c>
+      <c r="AJ9" s="22">
+        <f t="shared" si="11"/>
+        <v>1.0295557861600683E-2</v>
+      </c>
+      <c r="AK9" s="22">
+        <f t="shared" si="11"/>
+        <v>1.0110283644119247E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="4:81" x14ac:dyDescent="0.3">
       <c r="D10" s="4">
         <f t="shared" si="7"/>
         <v>44356</v>
@@ -12054,15 +12782,15 @@
         <f t="shared" si="4"/>
         <v>0.10251650165016524</v>
       </c>
-      <c r="K10" s="73">
+      <c r="K10" s="60">
         <f t="shared" si="5"/>
         <v>-14.829672131147525</v>
       </c>
-      <c r="L10" s="73">
+      <c r="L10" s="60">
         <f t="shared" si="0"/>
         <v>-6.9663934426229659</v>
       </c>
-      <c r="M10" s="73">
+      <c r="M10" s="60">
         <f t="shared" si="0"/>
         <v>-14.99213114754096</v>
       </c>
@@ -12076,19 +12804,19 @@
         <v>54</v>
       </c>
       <c r="V10" s="23">
-        <f>Q5</f>
-        <v>58.263333797814198</v>
+        <f>_xlfn.COVARIANCE.S(H6:H65,I6:I65)</f>
+        <v>4.7759864650733858E-4</v>
       </c>
       <c r="W10" s="23">
-        <f t="shared" ref="W10:X10" si="10">R5</f>
-        <v>93.755064043715805</v>
+        <f>_xlfn.COVARIANCE.S(H6:H65,J6:J65)</f>
+        <v>2.2016651380134388E-4</v>
       </c>
       <c r="X10" s="23">
-        <f>S5</f>
-        <v>40.768156147540964</v>
-      </c>
-    </row>
-    <row r="11" spans="4:81" x14ac:dyDescent="0.25">
+        <f>_xlfn.COVARIANCE.S(I6:I65,J6:J65)</f>
+        <v>9.6340361090132545E-4</v>
+      </c>
+    </row>
+    <row r="11" spans="4:81" x14ac:dyDescent="0.3">
       <c r="D11" s="4">
         <f t="shared" si="7"/>
         <v>44357</v>
@@ -12114,15 +12842,15 @@
         <f t="shared" si="4"/>
         <v>4.396632366697828E-2</v>
       </c>
-      <c r="K11" s="73">
+      <c r="K11" s="60">
         <f t="shared" si="5"/>
         <v>-18.399672131147526</v>
       </c>
-      <c r="L11" s="73">
+      <c r="L11" s="60">
         <f t="shared" si="0"/>
         <v>-9.1563934426229636</v>
       </c>
-      <c r="M11" s="73">
+      <c r="M11" s="60">
         <f t="shared" si="0"/>
         <v>-12.642131147540965</v>
       </c>
@@ -12184,7 +12912,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="4:81" ht="18" x14ac:dyDescent="0.35">
+    <row r="12" spans="4:81" ht="15.6" x14ac:dyDescent="0.35">
       <c r="D12" s="4">
         <f t="shared" si="7"/>
         <v>44358</v>
@@ -12210,15 +12938,15 @@
         <f t="shared" si="4"/>
         <v>-7.4910394265232938E-2</v>
       </c>
-      <c r="K12" s="73">
+      <c r="K12" s="60">
         <f t="shared" si="5"/>
         <v>-19.189672131147525</v>
       </c>
-      <c r="L12" s="73">
+      <c r="L12" s="60">
         <f t="shared" si="0"/>
         <v>-11.756393442622965</v>
       </c>
-      <c r="M12" s="73">
+      <c r="M12" s="60">
         <f t="shared" si="0"/>
         <v>-16.822131147540965</v>
       </c>
@@ -12265,7 +12993,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="4:81" ht="18" x14ac:dyDescent="0.35">
+    <row r="13" spans="4:81" ht="16.2" x14ac:dyDescent="0.35">
       <c r="D13" s="4">
         <f t="shared" si="7"/>
         <v>44361</v>
@@ -12291,15 +13019,15 @@
         <f t="shared" si="4"/>
         <v>4.6106160402944685E-2</v>
       </c>
-      <c r="K13" s="73">
+      <c r="K13" s="60">
         <f t="shared" si="5"/>
         <v>-20.229672131147524</v>
       </c>
-      <c r="L13" s="73">
+      <c r="L13" s="60">
         <f t="shared" si="0"/>
         <v>-10.386393442622964</v>
       </c>
-      <c r="M13" s="73">
+      <c r="M13" s="60">
         <f t="shared" si="0"/>
         <v>-14.442131147540962</v>
       </c>
@@ -12309,12 +13037,12 @@
       <c r="Q13" s="9"/>
       <c r="R13" s="9"/>
       <c r="S13" s="9"/>
-      <c r="U13" s="65" t="s">
+      <c r="U13" s="69" t="s">
         <v>56</v>
       </c>
-      <c r="V13" s="65"/>
-      <c r="W13" s="65"/>
-      <c r="X13" s="65"/>
+      <c r="V13" s="69"/>
+      <c r="W13" s="69"/>
+      <c r="X13" s="69"/>
       <c r="Z13" s="16" t="s">
         <v>48</v>
       </c>
@@ -12352,7 +13080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="4:81" ht="18" x14ac:dyDescent="0.35">
+    <row r="14" spans="4:81" ht="15.6" x14ac:dyDescent="0.35">
       <c r="D14" s="4">
         <f t="shared" si="7"/>
         <v>44362</v>
@@ -12378,15 +13106,15 @@
         <f t="shared" si="4"/>
         <v>-9.2592592592593004E-3</v>
       </c>
-      <c r="K14" s="73">
+      <c r="K14" s="60">
         <f t="shared" si="5"/>
         <v>-16.939672131147525</v>
       </c>
-      <c r="L14" s="73">
+      <c r="L14" s="60">
         <f t="shared" si="0"/>
         <v>-7.2863934426229662</v>
       </c>
-      <c r="M14" s="73">
+      <c r="M14" s="60">
         <f t="shared" si="0"/>
         <v>-14.942131147540962</v>
       </c>
@@ -12443,7 +13171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="4:81" x14ac:dyDescent="0.25">
+    <row r="15" spans="4:81" x14ac:dyDescent="0.3">
       <c r="D15" s="4">
         <f t="shared" si="7"/>
         <v>44363</v>
@@ -12469,15 +13197,15 @@
         <f t="shared" si="4"/>
         <v>1.4766355140186871E-2</v>
       </c>
-      <c r="K15" s="73">
+      <c r="K15" s="60">
         <f t="shared" si="5"/>
         <v>-13.729672131147524</v>
       </c>
-      <c r="L15" s="73">
+      <c r="L15" s="60">
         <f t="shared" si="0"/>
         <v>-7.1963934426229663</v>
       </c>
-      <c r="M15" s="73">
+      <c r="M15" s="60">
         <f t="shared" si="0"/>
         <v>-14.152131147540963</v>
       </c>
@@ -12496,28 +13224,61 @@
       </c>
       <c r="W15">
         <f>V10</f>
-        <v>58.263333797814198</v>
+        <v>4.7759864650733858E-4</v>
       </c>
       <c r="X15">
         <f>W10</f>
-        <v>93.755064043715805</v>
+        <v>2.2016651380134388E-4</v>
       </c>
       <c r="Z15" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="AA15" s="21"/>
-      <c r="AB15" s="21"/>
-      <c r="AC15" s="21"/>
-      <c r="AD15" s="21"/>
-      <c r="AE15" s="21"/>
-      <c r="AF15" s="21"/>
-      <c r="AG15" s="21"/>
-      <c r="AH15" s="21"/>
-      <c r="AI15" s="21"/>
-      <c r="AJ15" s="21"/>
-      <c r="AK15" s="21"/>
-    </row>
-    <row r="16" spans="4:81" ht="18" x14ac:dyDescent="0.35">
+      <c r="AA15" s="21">
+        <f>POWER($V$6*POWER(AA12,2)+$W$6*POWER(AA13,2)+$X$6*POWER(AA14,2)+2*(_xlfn.COVARIANCE.S($H$6:$H$65,$I$6:$I$65)*AA12*AA13+_xlfn.COVARIANCE.S($H$6:$H$65,$J$6:$J$65)*AA12*AA14+_xlfn.COVARIANCE.S($I$6:$I$65,$J$6:$J$65)*AA13*AA14),0.5)</f>
+        <v>5.9339874441801027E-2</v>
+      </c>
+      <c r="AB15" s="21">
+        <f t="shared" ref="AB15" si="12">POWER($V$6*POWER(AB12,2)+$W$6*POWER(AB13,2)+$X$6*POWER(AB14,2)+2*(_xlfn.COVARIANCE.S($H$6:$H$65,$I$6:$I$65)*AB12*AB13+_xlfn.COVARIANCE.S($H$6:$H$65,$J$6:$J$65)*AB12*AB14+_xlfn.COVARIANCE.S($I$6:$I$65,$J$6:$J$65)*AB13*AB14),0.5)</f>
+        <v>5.3944132115092851E-2</v>
+      </c>
+      <c r="AC15" s="21">
+        <f t="shared" ref="AC15" si="13">POWER($V$6*POWER(AC12,2)+$W$6*POWER(AC13,2)+$X$6*POWER(AC14,2)+2*(_xlfn.COVARIANCE.S($H$6:$H$65,$I$6:$I$65)*AC12*AC13+_xlfn.COVARIANCE.S($H$6:$H$65,$J$6:$J$65)*AC12*AC14+_xlfn.COVARIANCE.S($I$6:$I$65,$J$6:$J$65)*AC13*AC14),0.5)</f>
+        <v>4.8955460740178737E-2</v>
+      </c>
+      <c r="AD15" s="21">
+        <f t="shared" ref="AD15" si="14">POWER($V$6*POWER(AD12,2)+$W$6*POWER(AD13,2)+$X$6*POWER(AD14,2)+2*(_xlfn.COVARIANCE.S($H$6:$H$65,$I$6:$I$65)*AD12*AD13+_xlfn.COVARIANCE.S($H$6:$H$65,$J$6:$J$65)*AD12*AD14+_xlfn.COVARIANCE.S($I$6:$I$65,$J$6:$J$65)*AD13*AD14),0.5)</f>
+        <v>4.4510941785885404E-2</v>
+      </c>
+      <c r="AE15" s="21">
+        <f>POWER($V$6*POWER(AE12,2)+$W$6*POWER(AE13,2)+$X$6*POWER(AE14,2)+2*(_xlfn.COVARIANCE.S($H$6:$H$65,$I$6:$I$65)*AE12*AE13+_xlfn.COVARIANCE.S($H$6:$H$65,$J$6:$J$65)*AE12*AE14+_xlfn.COVARIANCE.S($I$6:$I$65,$J$6:$J$65)*AE13*AE14),0.5)</f>
+        <v>4.0788844023831886E-2</v>
+      </c>
+      <c r="AF15" s="21">
+        <f t="shared" ref="AF15" si="15">POWER($V$6*POWER(AF12,2)+$W$6*POWER(AF13,2)+$X$6*POWER(AF14,2)+2*(_xlfn.COVARIANCE.S($H$6:$H$65,$I$6:$I$65)*AF12*AF13+_xlfn.COVARIANCE.S($H$6:$H$65,$J$6:$J$65)*AF12*AF14+_xlfn.COVARIANCE.S($I$6:$I$65,$J$6:$J$65)*AF13*AF14),0.5)</f>
+        <v>3.8002035612387942E-2</v>
+      </c>
+      <c r="AG15" s="21">
+        <f t="shared" ref="AG15" si="16">POWER($V$6*POWER(AG12,2)+$W$6*POWER(AG13,2)+$X$6*POWER(AG14,2)+2*(_xlfn.COVARIANCE.S($H$6:$H$65,$I$6:$I$65)*AG12*AG13+_xlfn.COVARIANCE.S($H$6:$H$65,$J$6:$J$65)*AG12*AG14+_xlfn.COVARIANCE.S($I$6:$I$65,$J$6:$J$65)*AG13*AG14),0.5)</f>
+        <v>3.636617494761616E-2</v>
+      </c>
+      <c r="AH15" s="21">
+        <f>POWER($V$6*POWER(AH12,2)+$W$6*POWER(AH13,2)+$X$6*POWER(AH14,2)+2*(_xlfn.COVARIANCE.S($H$6:$H$65,$I$6:$I$65)*AH12*AH13+_xlfn.COVARIANCE.S($H$6:$H$65,$J$6:$J$65)*AH12*AH14+_xlfn.COVARIANCE.S($I$6:$I$65,$J$6:$J$65)*AH13*AH14),0.5)</f>
+        <v>3.6038336611263808E-2</v>
+      </c>
+      <c r="AI15" s="21">
+        <f t="shared" ref="AI15" si="17">POWER($V$6*POWER(AI12,2)+$W$6*POWER(AI13,2)+$X$6*POWER(AI14,2)+2*(_xlfn.COVARIANCE.S($H$6:$H$65,$I$6:$I$65)*AI12*AI13+_xlfn.COVARIANCE.S($H$6:$H$65,$J$6:$J$65)*AI12*AI14+_xlfn.COVARIANCE.S($I$6:$I$65,$J$6:$J$65)*AI13*AI14),0.5)</f>
+        <v>3.7053256089628596E-2</v>
+      </c>
+      <c r="AJ15" s="21">
+        <f t="shared" ref="AJ15" si="18">POWER($V$6*POWER(AJ12,2)+$W$6*POWER(AJ13,2)+$X$6*POWER(AJ14,2)+2*(_xlfn.COVARIANCE.S($H$6:$H$65,$I$6:$I$65)*AJ12*AJ13+_xlfn.COVARIANCE.S($H$6:$H$65,$J$6:$J$65)*AJ12*AJ14+_xlfn.COVARIANCE.S($I$6:$I$65,$J$6:$J$65)*AJ13*AJ14),0.5)</f>
+        <v>3.9307059464314398E-2</v>
+      </c>
+      <c r="AK15" s="21">
+        <f t="shared" ref="AK15" si="19">POWER($V$6*POWER(AK12,2)+$W$6*POWER(AK13,2)+$X$6*POWER(AK14,2)+2*(_xlfn.COVARIANCE.S($H$6:$H$65,$I$6:$I$65)*AK12*AK13+_xlfn.COVARIANCE.S($H$6:$H$65,$J$6:$J$65)*AK12*AK14+_xlfn.COVARIANCE.S($I$6:$I$65,$J$6:$J$65)*AK13*AK14),0.5)</f>
+        <v>4.2603581027531083E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="4:81" ht="15.6" x14ac:dyDescent="0.35">
       <c r="D16" s="4">
         <f t="shared" si="7"/>
         <v>44364</v>
@@ -12543,15 +13304,15 @@
         <f t="shared" si="4"/>
         <v>-2.6524221771965339E-2</v>
       </c>
-      <c r="K16" s="73">
+      <c r="K16" s="60">
         <f t="shared" si="5"/>
         <v>-11.559672131147529</v>
       </c>
-      <c r="L16" s="73">
+      <c r="L16" s="60">
         <f t="shared" si="0"/>
         <v>-6.3363934426229633</v>
       </c>
-      <c r="M16" s="73">
+      <c r="M16" s="60">
         <f t="shared" si="0"/>
         <v>-15.592131147540961</v>
       </c>
@@ -12566,7 +13327,7 @@
       </c>
       <c r="V16">
         <f>W15</f>
-        <v>58.263333797814198</v>
+        <v>4.7759864650733858E-4</v>
       </c>
       <c r="W16">
         <f>O5</f>
@@ -12574,24 +13335,57 @@
       </c>
       <c r="X16">
         <f>X10</f>
-        <v>40.768156147540964</v>
+        <v>9.6340361090132545E-4</v>
       </c>
       <c r="Z16" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="AA16" s="22"/>
-      <c r="AB16" s="22"/>
-      <c r="AC16" s="22"/>
-      <c r="AD16" s="22"/>
-      <c r="AE16" s="22"/>
-      <c r="AF16" s="22"/>
-      <c r="AG16" s="22"/>
-      <c r="AH16" s="22"/>
-      <c r="AI16" s="22"/>
-      <c r="AJ16" s="22"/>
-      <c r="AK16" s="22"/>
-    </row>
-    <row r="17" spans="4:37" x14ac:dyDescent="0.25">
+      <c r="AA16" s="22">
+        <f>$V$5*AA12+$W$5*AA13+$X$5*AA14</f>
+        <v>7.3975666620683537E-3</v>
+      </c>
+      <c r="AB16" s="22">
+        <f t="shared" ref="AB16:AK16" si="20">$V$5*AB12+$W$5*AB13+$X$5*AB14</f>
+        <v>7.6688383602734429E-3</v>
+      </c>
+      <c r="AC16" s="22">
+        <f t="shared" si="20"/>
+        <v>7.940110058478533E-3</v>
+      </c>
+      <c r="AD16" s="22">
+        <f t="shared" si="20"/>
+        <v>8.2113817566836222E-3</v>
+      </c>
+      <c r="AE16" s="22">
+        <f t="shared" si="20"/>
+        <v>8.4826534548887098E-3</v>
+      </c>
+      <c r="AF16" s="22">
+        <f>$V$5*AF12+$W$5*AF13+$X$5*AF14</f>
+        <v>8.7539251530938007E-3</v>
+      </c>
+      <c r="AG16" s="22">
+        <f t="shared" ref="AG16:AK16" si="21">$V$5*AG12+$W$5*AG13+$X$5*AG14</f>
+        <v>9.02519685129889E-3</v>
+      </c>
+      <c r="AH16" s="22">
+        <f t="shared" si="21"/>
+        <v>9.2964685495039792E-3</v>
+      </c>
+      <c r="AI16" s="22">
+        <f t="shared" si="21"/>
+        <v>9.5677402477090685E-3</v>
+      </c>
+      <c r="AJ16" s="22">
+        <f t="shared" si="21"/>
+        <v>9.8390119459141577E-3</v>
+      </c>
+      <c r="AK16" s="22">
+        <f t="shared" si="21"/>
+        <v>1.0110283644119247E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="4:37" x14ac:dyDescent="0.3">
       <c r="D17" s="4">
         <f t="shared" si="7"/>
         <v>44365</v>
@@ -12617,15 +13411,15 @@
         <f t="shared" si="4"/>
         <v>-1.6840113528855283E-2</v>
       </c>
-      <c r="K17" s="73">
+      <c r="K17" s="60">
         <f t="shared" si="5"/>
         <v>-11.679672131147527</v>
       </c>
-      <c r="L17" s="73">
+      <c r="L17" s="60">
         <f t="shared" si="0"/>
         <v>-4.8063934426229658</v>
       </c>
-      <c r="M17" s="73">
+      <c r="M17" s="60">
         <f t="shared" si="0"/>
         <v>-16.482131147540962</v>
       </c>
@@ -12640,18 +13434,18 @@
       </c>
       <c r="V17">
         <f>X15</f>
-        <v>93.755064043715805</v>
+        <v>2.2016651380134388E-4</v>
       </c>
       <c r="W17">
         <f>X16</f>
-        <v>40.768156147540964</v>
+        <v>9.6340361090132545E-4</v>
       </c>
       <c r="X17">
         <f>P5</f>
         <v>197.63201704918464</v>
       </c>
     </row>
-    <row r="18" spans="4:37" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:37" x14ac:dyDescent="0.3">
       <c r="D18" s="4">
         <f t="shared" si="7"/>
         <v>44368</v>
@@ -12677,15 +13471,15 @@
         <f t="shared" si="4"/>
         <v>2.5019245573518756E-3</v>
       </c>
-      <c r="K18" s="73">
+      <c r="K18" s="60">
         <f t="shared" si="5"/>
         <v>-10.529672131147528</v>
       </c>
-      <c r="L18" s="73">
+      <c r="L18" s="60">
         <f t="shared" si="0"/>
         <v>-2.8263934426229653</v>
       </c>
-      <c r="M18" s="73">
+      <c r="M18" s="60">
         <f t="shared" si="0"/>
         <v>-16.352131147540959</v>
       </c>
@@ -12732,7 +13526,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="4:37" ht="18" x14ac:dyDescent="0.35">
+    <row r="19" spans="4:37" ht="16.2" x14ac:dyDescent="0.35">
       <c r="D19" s="4">
         <f t="shared" si="7"/>
         <v>44369</v>
@@ -12758,15 +13552,15 @@
         <f t="shared" si="4"/>
         <v>3.0332117488961474E-2</v>
       </c>
-      <c r="K19" s="73">
+      <c r="K19" s="60">
         <f t="shared" si="5"/>
         <v>-12.469672131147526</v>
       </c>
-      <c r="L19" s="73">
+      <c r="L19" s="60">
         <f t="shared" si="0"/>
         <v>-2.6163934426229645</v>
       </c>
-      <c r="M19" s="73">
+      <c r="M19" s="60">
         <f t="shared" si="0"/>
         <v>-14.772131147540961</v>
       </c>
@@ -12776,12 +13570,12 @@
       <c r="Q19" s="9"/>
       <c r="R19" s="9"/>
       <c r="S19" s="9"/>
-      <c r="U19" s="65" t="s">
+      <c r="U19" s="69" t="s">
         <v>58</v>
       </c>
-      <c r="V19" s="65"/>
-      <c r="W19" s="65"/>
-      <c r="X19" s="65"/>
+      <c r="V19" s="69"/>
+      <c r="W19" s="69"/>
+      <c r="X19" s="69"/>
       <c r="Z19" s="16" t="s">
         <v>47</v>
       </c>
@@ -12819,7 +13613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="4:37" ht="18" x14ac:dyDescent="0.35">
+    <row r="20" spans="4:37" ht="15.6" x14ac:dyDescent="0.35">
       <c r="D20" s="4">
         <f t="shared" si="7"/>
         <v>44370</v>
@@ -12845,15 +13639,15 @@
         <f t="shared" si="4"/>
         <v>2.4781069498788888E-2</v>
       </c>
-      <c r="K20" s="73">
+      <c r="K20" s="60">
         <f t="shared" si="5"/>
         <v>-5.1996721311475227</v>
       </c>
-      <c r="L20" s="73">
+      <c r="L20" s="60">
         <f t="shared" si="0"/>
         <v>-1.7363934426229619</v>
       </c>
-      <c r="M20" s="73">
+      <c r="M20" s="60">
         <f t="shared" si="0"/>
         <v>-13.442131147540962</v>
       </c>
@@ -12910,7 +13704,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="4:37" ht="18" x14ac:dyDescent="0.35">
+    <row r="21" spans="4:37" ht="15.6" x14ac:dyDescent="0.35">
       <c r="D21" s="4">
         <f t="shared" si="7"/>
         <v>44371</v>
@@ -12936,16 +13730,16 @@
         <f t="shared" si="4"/>
         <v>6.4363636363636401E-2</v>
       </c>
-      <c r="K21" s="73">
+      <c r="K21" s="60">
         <f t="shared" si="5"/>
         <v>-3.6196721311475244</v>
       </c>
-      <c r="L21" s="73">
-        <f t="shared" ref="L21:L65" si="11">F21-AVERAGE(F$5:F$65)</f>
+      <c r="L21" s="60">
+        <f t="shared" ref="L21:L65" si="22">F21-AVERAGE(F$5:F$65)</f>
         <v>-1.8663934426229645</v>
       </c>
-      <c r="M21" s="73">
-        <f t="shared" ref="M21:M65" si="12">G21-AVERAGE(G$5:G$65)</f>
+      <c r="M21" s="60">
+        <f t="shared" ref="M21:M65" si="23">G21-AVERAGE(G$5:G$65)</f>
         <v>-9.9021311475409632</v>
       </c>
       <c r="N21" s="9"/>
@@ -12957,14 +13751,14 @@
       <c r="U21" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="V21" s="74">
+      <c r="V21" s="61">
         <v>1</v>
       </c>
-      <c r="W21" s="74">
+      <c r="W21" s="61">
         <f>V11</f>
         <v>0.91361966921618898</v>
       </c>
-      <c r="X21" s="74">
+      <c r="X21" s="61">
         <f>W11</f>
         <v>0.62186513855655412</v>
       </c>
@@ -13005,7 +13799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="4:37" x14ac:dyDescent="0.25">
+    <row r="22" spans="4:37" x14ac:dyDescent="0.3">
       <c r="D22" s="4">
         <f t="shared" si="7"/>
         <v>44372</v>
@@ -13024,23 +13818,23 @@
         <v>1.3095238095238049E-2</v>
       </c>
       <c r="I22" s="9">
-        <f t="shared" ref="I22:I65" si="13">F22/F21-1</f>
+        <f t="shared" ref="I22:I65" si="24">F22/F21-1</f>
         <v>8.2060497154836876E-2</v>
       </c>
       <c r="J22" s="9">
-        <f t="shared" ref="J22:J65" si="14">G22/G21-1</f>
+        <f t="shared" ref="J22:J65" si="25">G22/G21-1</f>
         <v>9.0707208746156454E-2</v>
       </c>
-      <c r="K22" s="73">
+      <c r="K22" s="60">
         <f t="shared" si="5"/>
         <v>-2.7396721311475289</v>
       </c>
-      <c r="L22" s="73">
-        <f t="shared" si="11"/>
+      <c r="L22" s="60">
+        <f t="shared" si="22"/>
         <v>0.87360655737703752</v>
       </c>
-      <c r="M22" s="73">
-        <f t="shared" si="12"/>
+      <c r="M22" s="60">
+        <f t="shared" si="23"/>
         <v>-4.592131147540961</v>
       </c>
       <c r="N22" s="9"/>
@@ -13052,33 +13846,66 @@
       <c r="U22" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="V22" s="74">
+      <c r="V22" s="61">
         <f>W21</f>
         <v>0.91361966921618898</v>
       </c>
-      <c r="W22" s="74">
+      <c r="W22" s="61">
         <v>1</v>
       </c>
-      <c r="X22" s="74">
+      <c r="X22" s="61">
         <f>X11</f>
         <v>0.48767714184562555</v>
       </c>
       <c r="Z22" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="AA22" s="21"/>
-      <c r="AB22" s="21"/>
-      <c r="AC22" s="21"/>
-      <c r="AD22" s="21"/>
-      <c r="AE22" s="21"/>
-      <c r="AF22" s="21"/>
-      <c r="AG22" s="21"/>
-      <c r="AH22" s="21"/>
-      <c r="AI22" s="21"/>
-      <c r="AJ22" s="21"/>
-      <c r="AK22" s="21"/>
-    </row>
-    <row r="23" spans="4:37" ht="18" x14ac:dyDescent="0.35">
+      <c r="AA22" s="21">
+        <f>POWER($V$6*POWER(AA19,2)+$W$6*POWER(AA20,2)+$X$6*POWER(AA21,2)+2*(_xlfn.COVARIANCE.S($H$6:$H$65,$I$6:$I$65)*AA19*AA20+_xlfn.COVARIANCE.S($H$6:$H$65,$J$6:$J$65)*AA19*AA21+_xlfn.COVARIANCE.S($I$6:$I$65,$J$6:$J$65)*AA20*AA21),0.5)</f>
+        <v>5.9339874441801027E-2</v>
+      </c>
+      <c r="AB22" s="21">
+        <f t="shared" ref="AB22" si="26">POWER($V$6*POWER(AB19,2)+$W$6*POWER(AB20,2)+$X$6*POWER(AB21,2)+2*(_xlfn.COVARIANCE.S($H$6:$H$65,$I$6:$I$65)*AB19*AB20+_xlfn.COVARIANCE.S($H$6:$H$65,$J$6:$J$65)*AB19*AB21+_xlfn.COVARIANCE.S($I$6:$I$65,$J$6:$J$65)*AB20*AB21),0.5)</f>
+        <v>5.5285043285903133E-2</v>
+      </c>
+      <c r="AC22" s="21">
+        <f t="shared" ref="AC22" si="27">POWER($V$6*POWER(AC19,2)+$W$6*POWER(AC20,2)+$X$6*POWER(AC21,2)+2*(_xlfn.COVARIANCE.S($H$6:$H$65,$I$6:$I$65)*AC19*AC20+_xlfn.COVARIANCE.S($H$6:$H$65,$J$6:$J$65)*AC19*AC21+_xlfn.COVARIANCE.S($I$6:$I$65,$J$6:$J$65)*AC20*AC21),0.5)</f>
+        <v>5.1819000215534386E-2</v>
+      </c>
+      <c r="AD22" s="21">
+        <f t="shared" ref="AD22" si="28">POWER($V$6*POWER(AD19,2)+$W$6*POWER(AD20,2)+$X$6*POWER(AD21,2)+2*(_xlfn.COVARIANCE.S($H$6:$H$65,$I$6:$I$65)*AD19*AD20+_xlfn.COVARIANCE.S($H$6:$H$65,$J$6:$J$65)*AD19*AD21+_xlfn.COVARIANCE.S($I$6:$I$65,$J$6:$J$65)*AD20*AD21),0.5)</f>
+        <v>4.9066679278394407E-2</v>
+      </c>
+      <c r="AE22" s="21">
+        <f>POWER($V$6*POWER(AE19,2)+$W$6*POWER(AE20,2)+$X$6*POWER(AE21,2)+2*(_xlfn.COVARIANCE.S($H$6:$H$65,$I$6:$I$65)*AE19*AE20+_xlfn.COVARIANCE.S($H$6:$H$65,$J$6:$J$65)*AE19*AE21+_xlfn.COVARIANCE.S($I$6:$I$65,$J$6:$J$65)*AE20*AE21),0.5)</f>
+        <v>4.7153225842332183E-2</v>
+      </c>
+      <c r="AF22" s="21">
+        <f t="shared" ref="AF22" si="29">POWER($V$6*POWER(AF19,2)+$W$6*POWER(AF20,2)+$X$6*POWER(AF21,2)+2*(_xlfn.COVARIANCE.S($H$6:$H$65,$I$6:$I$65)*AF19*AF20+_xlfn.COVARIANCE.S($H$6:$H$65,$J$6:$J$65)*AF19*AF21+_xlfn.COVARIANCE.S($I$6:$I$65,$J$6:$J$65)*AF20*AF21),0.5)</f>
+        <v>4.6183025660138884E-2</v>
+      </c>
+      <c r="AG22" s="21">
+        <f t="shared" ref="AG22" si="30">POWER($V$6*POWER(AG19,2)+$W$6*POWER(AG20,2)+$X$6*POWER(AG21,2)+2*(_xlfn.COVARIANCE.S($H$6:$H$65,$I$6:$I$65)*AG19*AG20+_xlfn.COVARIANCE.S($H$6:$H$65,$J$6:$J$65)*AG19*AG21+_xlfn.COVARIANCE.S($I$6:$I$65,$J$6:$J$65)*AG20*AG21),0.5)</f>
+        <v>4.6215521967949327E-2</v>
+      </c>
+      <c r="AH22" s="21">
+        <f>POWER($V$6*POWER(AH19,2)+$W$6*POWER(AH20,2)+$X$6*POWER(AH21,2)+2*(_xlfn.COVARIANCE.S($H$6:$H$65,$I$6:$I$65)*AH19*AH20+_xlfn.COVARIANCE.S($H$6:$H$65,$J$6:$J$65)*AH19*AH21+_xlfn.COVARIANCE.S($I$6:$I$65,$J$6:$J$65)*AH20*AH21),0.5)</f>
+        <v>4.7248645930575234E-2</v>
+      </c>
+      <c r="AI22" s="21">
+        <f t="shared" ref="AI22" si="31">POWER($V$6*POWER(AI19,2)+$W$6*POWER(AI20,2)+$X$6*POWER(AI21,2)+2*(_xlfn.COVARIANCE.S($H$6:$H$65,$I$6:$I$65)*AI19*AI20+_xlfn.COVARIANCE.S($H$6:$H$65,$J$6:$J$65)*AI19*AI21+_xlfn.COVARIANCE.S($I$6:$I$65,$J$6:$J$65)*AI20*AI21),0.5)</f>
+        <v>4.9219427806849E-2</v>
+      </c>
+      <c r="AJ22" s="21">
+        <f t="shared" ref="AJ22" si="32">POWER($V$6*POWER(AJ19,2)+$W$6*POWER(AJ20,2)+$X$6*POWER(AJ21,2)+2*(_xlfn.COVARIANCE.S($H$6:$H$65,$I$6:$I$65)*AJ19*AJ20+_xlfn.COVARIANCE.S($H$6:$H$65,$J$6:$J$65)*AJ19*AJ21+_xlfn.COVARIANCE.S($I$6:$I$65,$J$6:$J$65)*AJ20*AJ21),0.5)</f>
+        <v>5.2021409677672839E-2</v>
+      </c>
+      <c r="AK22" s="21">
+        <f t="shared" ref="AK22" si="33">POWER($V$6*POWER(AK19,2)+$W$6*POWER(AK20,2)+$X$6*POWER(AK21,2)+2*(_xlfn.COVARIANCE.S($H$6:$H$65,$I$6:$I$65)*AK19*AK20+_xlfn.COVARIANCE.S($H$6:$H$65,$J$6:$J$65)*AK19*AK21+_xlfn.COVARIANCE.S($I$6:$I$65,$J$6:$J$65)*AK20*AK21),0.5)</f>
+        <v>5.5528907029841888E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="4:37" ht="15.6" x14ac:dyDescent="0.35">
       <c r="D23" s="4">
         <f t="shared" si="7"/>
         <v>44375</v>
@@ -13097,23 +13924,23 @@
         <v>-4.2596944770856293E-3</v>
       </c>
       <c r="I23" s="9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="24"/>
         <v>-3.4874065873235716E-2</v>
       </c>
       <c r="J23" s="9">
-        <f t="shared" si="14"/>
+        <f t="shared" si="25"/>
         <v>1.4878621769772948E-2</v>
       </c>
-      <c r="K23" s="73">
+      <c r="K23" s="60">
         <f t="shared" si="5"/>
         <v>-3.029672131147521</v>
       </c>
-      <c r="L23" s="73">
-        <f t="shared" si="11"/>
+      <c r="L23" s="60">
+        <f t="shared" si="22"/>
         <v>-0.3863934426229676</v>
       </c>
-      <c r="M23" s="73">
-        <f t="shared" si="12"/>
+      <c r="M23" s="60">
+        <f t="shared" si="23"/>
         <v>-3.6421311475409652</v>
       </c>
       <c r="N23" s="9"/>
@@ -13125,33 +13952,66 @@
       <c r="U23" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="V23" s="74">
+      <c r="V23" s="61">
         <f>X21</f>
         <v>0.62186513855655412</v>
       </c>
-      <c r="W23" s="74">
+      <c r="W23" s="61">
         <f>X22</f>
         <v>0.48767714184562555</v>
       </c>
-      <c r="X23" s="74">
+      <c r="X23" s="61">
         <v>1</v>
       </c>
       <c r="Z23" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="AA23" s="22"/>
-      <c r="AB23" s="22"/>
-      <c r="AC23" s="22"/>
-      <c r="AD23" s="22"/>
-      <c r="AE23" s="22"/>
-      <c r="AF23" s="22"/>
-      <c r="AG23" s="22"/>
-      <c r="AH23" s="22"/>
-      <c r="AI23" s="22"/>
-      <c r="AJ23" s="22"/>
-      <c r="AK23" s="22"/>
-    </row>
-    <row r="24" spans="4:37" x14ac:dyDescent="0.25">
+      <c r="AA23" s="22">
+        <f>$V$5*AA19+$W$5*AA20+$X$5*AA21</f>
+        <v>7.3975666620683537E-3</v>
+      </c>
+      <c r="AB23" s="22">
+        <f t="shared" ref="AB23:AK23" si="34">$V$5*AB19+$W$5*AB20+$X$5*AB21</f>
+        <v>7.8541125777548803E-3</v>
+      </c>
+      <c r="AC23" s="22">
+        <f t="shared" si="34"/>
+        <v>8.3106584934414078E-3</v>
+      </c>
+      <c r="AD23" s="22">
+        <f t="shared" si="34"/>
+        <v>8.7672044091279336E-3</v>
+      </c>
+      <c r="AE23" s="22">
+        <f t="shared" si="34"/>
+        <v>9.2237503248144594E-3</v>
+      </c>
+      <c r="AF23" s="22">
+        <f>$V$5*AF19+$W$5*AF20+$X$5*AF21</f>
+        <v>9.6802962405009869E-3</v>
+      </c>
+      <c r="AG23" s="22">
+        <f t="shared" ref="AG23:AK23" si="35">$V$5*AG19+$W$5*AG20+$X$5*AG21</f>
+        <v>1.0136842156187513E-2</v>
+      </c>
+      <c r="AH23" s="22">
+        <f t="shared" si="35"/>
+        <v>1.059338807187404E-2</v>
+      </c>
+      <c r="AI23" s="22">
+        <f t="shared" si="35"/>
+        <v>1.1049933987560568E-2</v>
+      </c>
+      <c r="AJ23" s="22">
+        <f t="shared" si="35"/>
+        <v>1.1506479903247093E-2</v>
+      </c>
+      <c r="AK23" s="22">
+        <f t="shared" si="35"/>
+        <v>1.1963025818933619E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="4:37" x14ac:dyDescent="0.3">
       <c r="D24" s="4">
         <f t="shared" si="7"/>
         <v>44376</v>
@@ -13170,23 +14030,23 @@
         <v>8.8508629591383947E-3</v>
       </c>
       <c r="I24" s="9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="24"/>
         <v>7.1694866647546984E-3</v>
       </c>
       <c r="J24" s="9">
-        <f t="shared" si="14"/>
+        <f t="shared" si="25"/>
         <v>0.1157407407407407</v>
       </c>
-      <c r="K24" s="73">
+      <c r="K24" s="60">
         <f t="shared" si="5"/>
         <v>-2.4296721311475267</v>
       </c>
-      <c r="L24" s="73">
-        <f t="shared" si="11"/>
+      <c r="L24" s="60">
+        <f t="shared" si="22"/>
         <v>-0.1363934426229676</v>
       </c>
-      <c r="M24" s="73">
-        <f t="shared" si="12"/>
+      <c r="M24" s="60">
+        <f t="shared" si="23"/>
         <v>3.8578688524590348</v>
       </c>
       <c r="N24" s="9"/>
@@ -13196,7 +14056,7 @@
       <c r="R24" s="9"/>
       <c r="S24" s="9"/>
     </row>
-    <row r="25" spans="4:37" x14ac:dyDescent="0.25">
+    <row r="25" spans="4:37" x14ac:dyDescent="0.3">
       <c r="D25" s="4">
         <f t="shared" si="7"/>
         <v>44377</v>
@@ -13215,23 +14075,23 @@
         <v>3.3630647755520382E-3</v>
       </c>
       <c r="I25" s="9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="24"/>
         <v>-1.6514806378132074E-2</v>
       </c>
       <c r="J25" s="9">
-        <f t="shared" si="14"/>
+        <f t="shared" si="25"/>
         <v>-1.3139695712309885E-2</v>
       </c>
-      <c r="K25" s="73">
+      <c r="K25" s="60">
         <f t="shared" si="5"/>
         <v>-2.1996721311475227</v>
       </c>
-      <c r="L25" s="73">
-        <f t="shared" si="11"/>
+      <c r="L25" s="60">
+        <f t="shared" si="22"/>
         <v>-0.71639344262296589</v>
       </c>
-      <c r="M25" s="73">
-        <f t="shared" si="12"/>
+      <c r="M25" s="60">
+        <f t="shared" si="23"/>
         <v>2.9078688524590319</v>
       </c>
       <c r="N25" s="9"/>
@@ -13277,7 +14137,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="4:37" ht="18" x14ac:dyDescent="0.35">
+    <row r="26" spans="4:37" ht="15.6" x14ac:dyDescent="0.35">
       <c r="D26" s="4">
         <f t="shared" si="7"/>
         <v>44378</v>
@@ -13296,23 +14156,23 @@
         <v>4.8236665695132741E-2</v>
       </c>
       <c r="I26" s="9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="24"/>
         <v>6.7168500289519484E-2</v>
       </c>
       <c r="J26" s="9">
-        <f t="shared" si="14"/>
+        <f t="shared" si="25"/>
         <v>-1.3875262789067921E-2</v>
       </c>
-      <c r="K26" s="73">
+      <c r="K26" s="60">
         <f t="shared" si="5"/>
         <v>1.1103278688524796</v>
       </c>
-      <c r="L26" s="73">
-        <f t="shared" si="11"/>
+      <c r="L26" s="60">
+        <f t="shared" si="22"/>
         <v>1.6036065573770344</v>
       </c>
-      <c r="M26" s="73">
-        <f t="shared" si="12"/>
+      <c r="M26" s="60">
+        <f t="shared" si="23"/>
         <v>1.917868852459037</v>
       </c>
       <c r="N26" s="9"/>
@@ -13358,7 +14218,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="27" spans="4:37" ht="18" x14ac:dyDescent="0.35">
+    <row r="27" spans="4:37" ht="15.6" x14ac:dyDescent="0.35">
       <c r="D27" s="4">
         <f t="shared" si="7"/>
         <v>44379</v>
@@ -13377,23 +14237,23 @@
         <v>-2.5163353260113985E-2</v>
       </c>
       <c r="I27" s="9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="24"/>
         <v>-5.1275094953879607E-2</v>
       </c>
       <c r="J27" s="9">
-        <f t="shared" si="14"/>
+        <f t="shared" si="25"/>
         <v>-2.3166571915861245E-2</v>
       </c>
-      <c r="K27" s="73">
+      <c r="K27" s="60">
         <f t="shared" si="5"/>
         <v>-0.69967213114752269</v>
       </c>
-      <c r="L27" s="73">
-        <f t="shared" si="11"/>
+      <c r="L27" s="60">
+        <f t="shared" si="22"/>
         <v>-0.28639344262296618</v>
       </c>
-      <c r="M27" s="73">
-        <f t="shared" si="12"/>
+      <c r="M27" s="60">
+        <f t="shared" si="23"/>
         <v>0.28786885245904159</v>
       </c>
       <c r="N27" s="9"/>
@@ -13439,7 +14299,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="28" spans="4:37" ht="18" x14ac:dyDescent="0.35">
+    <row r="28" spans="4:37" ht="15.6" x14ac:dyDescent="0.35">
       <c r="D28" s="4">
         <f t="shared" si="7"/>
         <v>44382</v>
@@ -13458,23 +14318,23 @@
         <v>-3.2800912721049791E-2</v>
       </c>
       <c r="I28" s="9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="24"/>
         <v>-6.0051472690877961E-2</v>
       </c>
       <c r="J28" s="9">
-        <f t="shared" si="14"/>
+        <f t="shared" si="25"/>
         <v>5.2524370726029446E-2</v>
       </c>
-      <c r="K28" s="73">
+      <c r="K28" s="60">
         <f t="shared" si="5"/>
         <v>-2.9996721311475341</v>
       </c>
-      <c r="L28" s="73">
-        <f t="shared" si="11"/>
+      <c r="L28" s="60">
+        <f t="shared" si="22"/>
         <v>-2.3863934426229676</v>
       </c>
-      <c r="M28" s="73">
-        <f t="shared" si="12"/>
+      <c r="M28" s="60">
+        <f t="shared" si="23"/>
         <v>3.897868852459041</v>
       </c>
       <c r="N28" s="9"/>
@@ -13520,7 +14380,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="29" spans="4:37" x14ac:dyDescent="0.25">
+    <row r="29" spans="4:37" x14ac:dyDescent="0.3">
       <c r="D29" s="4">
         <f t="shared" si="7"/>
         <v>44383</v>
@@ -13539,23 +14399,23 @@
         <v>7.6083751105868735E-2</v>
       </c>
       <c r="I29" s="9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="24"/>
         <v>1.0952236081533284E-2</v>
       </c>
       <c r="J29" s="9">
-        <f t="shared" si="14"/>
+        <f t="shared" si="25"/>
         <v>8.6812275366325631E-2</v>
       </c>
-      <c r="K29" s="73">
+      <c r="K29" s="60">
         <f t="shared" si="5"/>
         <v>2.1603278688524767</v>
       </c>
-      <c r="L29" s="73">
-        <f t="shared" si="11"/>
+      <c r="L29" s="60">
+        <f t="shared" si="22"/>
         <v>-2.0263934426229682</v>
       </c>
-      <c r="M29" s="73">
-        <f t="shared" si="12"/>
+      <c r="M29" s="60">
+        <f t="shared" si="23"/>
         <v>10.177868852459042</v>
       </c>
       <c r="N29" s="9"/>
@@ -13567,19 +14427,52 @@
       <c r="Z29" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="AA29" s="26"/>
-      <c r="AB29" s="26"/>
-      <c r="AC29" s="26"/>
-      <c r="AD29" s="26"/>
-      <c r="AE29" s="26"/>
-      <c r="AF29" s="26"/>
-      <c r="AG29" s="26"/>
-      <c r="AH29" s="26"/>
-      <c r="AI29" s="26"/>
-      <c r="AJ29" s="26"/>
-      <c r="AK29" s="26"/>
-    </row>
-    <row r="30" spans="4:37" ht="18" x14ac:dyDescent="0.35">
+      <c r="AA29" s="21">
+        <f>POWER($V$6*POWER(AA26,2)+$W$6*POWER(AA27,2)+$X$6*POWER(AA28,2)+2*(_xlfn.COVARIANCE.S($H$6:$H$65,$I$6:$I$65)*AA26*AA27+_xlfn.COVARIANCE.S($H$6:$H$65,$J$6:$J$65)*AA26*AA28+_xlfn.COVARIANCE.S($I$6:$I$65,$J$6:$J$65)*AA27*AA28),0.5)</f>
+        <v>3.3976899897269319E-2</v>
+      </c>
+      <c r="AB29" s="21">
+        <f t="shared" ref="AB29" si="36">POWER($V$6*POWER(AB26,2)+$W$6*POWER(AB27,2)+$X$6*POWER(AB28,2)+2*(_xlfn.COVARIANCE.S($H$6:$H$65,$I$6:$I$65)*AB26*AB27+_xlfn.COVARIANCE.S($H$6:$H$65,$J$6:$J$65)*AB26*AB28+_xlfn.COVARIANCE.S($I$6:$I$65,$J$6:$J$65)*AB27*AB28),0.5)</f>
+        <v>3.4079693865273847E-2</v>
+      </c>
+      <c r="AC29" s="21">
+        <f t="shared" ref="AC29" si="37">POWER($V$6*POWER(AC26,2)+$W$6*POWER(AC27,2)+$X$6*POWER(AC28,2)+2*(_xlfn.COVARIANCE.S($H$6:$H$65,$I$6:$I$65)*AC26*AC27+_xlfn.COVARIANCE.S($H$6:$H$65,$J$6:$J$65)*AC26*AC28+_xlfn.COVARIANCE.S($I$6:$I$65,$J$6:$J$65)*AC27*AC28),0.5)</f>
+        <v>3.4469377394564675E-2</v>
+      </c>
+      <c r="AD29" s="21">
+        <f t="shared" ref="AD29" si="38">POWER($V$6*POWER(AD26,2)+$W$6*POWER(AD27,2)+$X$6*POWER(AD28,2)+2*(_xlfn.COVARIANCE.S($H$6:$H$65,$I$6:$I$65)*AD26*AD27+_xlfn.COVARIANCE.S($H$6:$H$65,$J$6:$J$65)*AD26*AD28+_xlfn.COVARIANCE.S($I$6:$I$65,$J$6:$J$65)*AD27*AD28),0.5)</f>
+        <v>3.5136406456601189E-2</v>
+      </c>
+      <c r="AE29" s="21">
+        <f>POWER($V$6*POWER(AE26,2)+$W$6*POWER(AE27,2)+$X$6*POWER(AE28,2)+2*(_xlfn.COVARIANCE.S($H$6:$H$65,$I$6:$I$65)*AE26*AE27+_xlfn.COVARIANCE.S($H$6:$H$65,$J$6:$J$65)*AE26*AE28+_xlfn.COVARIANCE.S($I$6:$I$65,$J$6:$J$65)*AE27*AE28),0.5)</f>
+        <v>3.6065395826116529E-2</v>
+      </c>
+      <c r="AF29" s="21">
+        <f t="shared" ref="AF29" si="39">POWER($V$6*POWER(AF26,2)+$W$6*POWER(AF27,2)+$X$6*POWER(AF28,2)+2*(_xlfn.COVARIANCE.S($H$6:$H$65,$I$6:$I$65)*AF26*AF27+_xlfn.COVARIANCE.S($H$6:$H$65,$J$6:$J$65)*AF26*AF28+_xlfn.COVARIANCE.S($I$6:$I$65,$J$6:$J$65)*AF27*AF28),0.5)</f>
+        <v>3.7236744355567113E-2</v>
+      </c>
+      <c r="AG29" s="21">
+        <f t="shared" ref="AG29" si="40">POWER($V$6*POWER(AG26,2)+$W$6*POWER(AG27,2)+$X$6*POWER(AG28,2)+2*(_xlfn.COVARIANCE.S($H$6:$H$65,$I$6:$I$65)*AG26*AG27+_xlfn.COVARIANCE.S($H$6:$H$65,$J$6:$J$65)*AG26*AG28+_xlfn.COVARIANCE.S($I$6:$I$65,$J$6:$J$65)*AG27*AG28),0.5)</f>
+        <v>3.8628410800933453E-2</v>
+      </c>
+      <c r="AH29" s="21">
+        <f>POWER($V$6*POWER(AH26,2)+$W$6*POWER(AH27,2)+$X$6*POWER(AH28,2)+2*(_xlfn.COVARIANCE.S($H$6:$H$65,$I$6:$I$65)*AH26*AH27+_xlfn.COVARIANCE.S($H$6:$H$65,$J$6:$J$65)*AH26*AH28+_xlfn.COVARIANCE.S($I$6:$I$65,$J$6:$J$65)*AH27*AH28),0.5)</f>
+        <v>4.0217530363087978E-2</v>
+      </c>
+      <c r="AI29" s="21">
+        <f>POWER($V$6*POWER(AI26,2)+$W$6*POWER(AI27,2)+$X$6*POWER(AI28,2)+2*(_xlfn.COVARIANCE.S($H$6:$H$65,$I$6:$I$65)*AI26*AI27+_xlfn.COVARIANCE.S($H$6:$H$65,$J$6:$J$65)*AI26*AI28+_xlfn.COVARIANCE.S($I$6:$I$65,$J$6:$J$65)*AI27*AI28),0.5)</f>
+        <v>4.1981686634800085E-2</v>
+      </c>
+      <c r="AJ29" s="21">
+        <f t="shared" ref="AJ29" si="41">POWER($V$6*POWER(AJ26,2)+$W$6*POWER(AJ27,2)+$X$6*POWER(AJ28,2)+2*(_xlfn.COVARIANCE.S($H$6:$H$65,$I$6:$I$65)*AJ26*AJ27+_xlfn.COVARIANCE.S($H$6:$H$65,$J$6:$J$65)*AJ26*AJ28+_xlfn.COVARIANCE.S($I$6:$I$65,$J$6:$J$65)*AJ27*AJ28),0.5)</f>
+        <v>4.3899782614446041E-2</v>
+      </c>
+      <c r="AK29" s="21">
+        <f t="shared" ref="AK29" si="42">POWER($V$6*POWER(AK26,2)+$W$6*POWER(AK27,2)+$X$6*POWER(AK28,2)+2*(_xlfn.COVARIANCE.S($H$6:$H$65,$I$6:$I$65)*AK26*AK27+_xlfn.COVARIANCE.S($H$6:$H$65,$J$6:$J$65)*AK26*AK28+_xlfn.COVARIANCE.S($I$6:$I$65,$J$6:$J$65)*AK27*AK28),0.5)</f>
+        <v>4.5952545644230659E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="4:37" ht="15.6" x14ac:dyDescent="0.35">
       <c r="D30" s="4">
         <f t="shared" si="7"/>
         <v>44384</v>
@@ -13598,23 +14491,23 @@
         <v>5.5768703754453197E-2</v>
       </c>
       <c r="I30" s="9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="24"/>
         <v>4.2130604875113109E-2</v>
       </c>
       <c r="J30" s="9">
-        <f t="shared" si="14"/>
+        <f t="shared" si="25"/>
         <v>5.3803103535995822E-2</v>
       </c>
-      <c r="K30" s="73">
+      <c r="K30" s="60">
         <f t="shared" si="5"/>
         <v>6.2303278688524699</v>
       </c>
-      <c r="L30" s="73">
-        <f t="shared" si="11"/>
+      <c r="L30" s="60">
+        <f t="shared" si="22"/>
         <v>-0.62639344262296248</v>
       </c>
-      <c r="M30" s="73">
-        <f t="shared" si="12"/>
+      <c r="M30" s="60">
+        <f t="shared" si="23"/>
         <v>14.407868852459032</v>
       </c>
       <c r="N30" s="9"/>
@@ -13626,19 +14519,52 @@
       <c r="Z30" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="AA30" s="22"/>
-      <c r="AB30" s="22"/>
-      <c r="AC30" s="22"/>
-      <c r="AD30" s="22"/>
-      <c r="AE30" s="22"/>
-      <c r="AF30" s="22"/>
-      <c r="AG30" s="22"/>
-      <c r="AH30" s="22"/>
-      <c r="AI30" s="22"/>
-      <c r="AJ30" s="22"/>
-      <c r="AK30" s="22"/>
-    </row>
-    <row r="31" spans="4:37" x14ac:dyDescent="0.25">
+      <c r="AA30" s="22">
+        <f>$V$5*AA26+$W$5*AA27+$X$5*AA28</f>
+        <v>9.8026528335693978E-3</v>
+      </c>
+      <c r="AB30" s="22">
+        <f t="shared" ref="AB30:AK30" si="43">$V$5*AB26+$W$5*AB27+$X$5*AB28</f>
+        <v>9.8952899423101169E-3</v>
+      </c>
+      <c r="AC30" s="22">
+        <f t="shared" si="43"/>
+        <v>9.9879270510508343E-3</v>
+      </c>
+      <c r="AD30" s="22">
+        <f t="shared" si="43"/>
+        <v>1.0080564159791553E-2</v>
+      </c>
+      <c r="AE30" s="22">
+        <f t="shared" si="43"/>
+        <v>1.0173201268532273E-2</v>
+      </c>
+      <c r="AF30" s="22">
+        <f>$V$5*AF26+$W$5*AF27+$X$5*AF28</f>
+        <v>1.0265838377272992E-2</v>
+      </c>
+      <c r="AG30" s="22">
+        <f t="shared" ref="AG30:AK30" si="44">$V$5*AG26+$W$5*AG27+$X$5*AG28</f>
+        <v>1.0358475486013709E-2</v>
+      </c>
+      <c r="AH30" s="22">
+        <f t="shared" si="44"/>
+        <v>1.0451112594754428E-2</v>
+      </c>
+      <c r="AI30" s="22">
+        <f t="shared" si="44"/>
+        <v>1.0543749703495146E-2</v>
+      </c>
+      <c r="AJ30" s="22">
+        <f t="shared" si="44"/>
+        <v>1.0636386812235865E-2</v>
+      </c>
+      <c r="AK30" s="22">
+        <f t="shared" si="44"/>
+        <v>1.0729023920976584E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="4:37" x14ac:dyDescent="0.3">
       <c r="D31" s="4">
         <f t="shared" si="7"/>
         <v>44385</v>
@@ -13657,23 +14583,23 @@
         <v>-3.6469824789097993E-2</v>
       </c>
       <c r="I31" s="9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="24"/>
         <v>1.7326017903551705E-2</v>
       </c>
       <c r="J31" s="9">
-        <f t="shared" si="14"/>
+        <f t="shared" si="25"/>
         <v>5.9505129752565056E-2</v>
       </c>
-      <c r="K31" s="73">
+      <c r="K31" s="60">
         <f t="shared" si="5"/>
         <v>3.4203278688524676</v>
       </c>
-      <c r="L31" s="73">
-        <f t="shared" si="11"/>
+      <c r="L31" s="60">
+        <f t="shared" si="22"/>
         <v>-2.6393442622968166E-2</v>
       </c>
-      <c r="M31" s="73">
-        <f t="shared" si="12"/>
+      <c r="M31" s="60">
+        <f t="shared" si="23"/>
         <v>19.337868852459039</v>
       </c>
       <c r="N31" s="9"/>
@@ -13683,7 +14609,7 @@
       <c r="R31" s="9"/>
       <c r="S31" s="9"/>
     </row>
-    <row r="32" spans="4:37" x14ac:dyDescent="0.25">
+    <row r="32" spans="4:37" x14ac:dyDescent="0.3">
       <c r="D32" s="4">
         <f t="shared" si="7"/>
         <v>44386</v>
@@ -13702,23 +14628,23 @@
         <v>-6.4520474137930939E-2</v>
       </c>
       <c r="I32" s="9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="24"/>
         <v>-1.1637808685779016E-2</v>
       </c>
       <c r="J32" s="9">
-        <f t="shared" si="14"/>
+        <f t="shared" si="25"/>
         <v>-6.5048986101617801E-2</v>
       </c>
-      <c r="K32" s="73">
+      <c r="K32" s="60">
         <f t="shared" si="5"/>
         <v>-1.3696721311475244</v>
       </c>
-      <c r="L32" s="73">
-        <f t="shared" si="11"/>
+      <c r="L32" s="60">
+        <f t="shared" si="22"/>
         <v>-0.43639344262296476</v>
       </c>
-      <c r="M32" s="73">
-        <f t="shared" si="12"/>
+      <c r="M32" s="60">
+        <f t="shared" si="23"/>
         <v>13.627868852459031</v>
       </c>
       <c r="N32" s="9"/>
@@ -13728,7 +14654,7 @@
       <c r="R32" s="9"/>
       <c r="S32" s="9"/>
     </row>
-    <row r="33" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="33" spans="4:19" x14ac:dyDescent="0.3">
       <c r="D33" s="4">
         <f t="shared" si="7"/>
         <v>44389</v>
@@ -13747,23 +14673,23 @@
         <v>3.8012958963282939E-2</v>
       </c>
       <c r="I33" s="9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="24"/>
         <v>1.8667432510051762E-2</v>
       </c>
       <c r="J33" s="9">
-        <f t="shared" si="14"/>
+        <f t="shared" si="25"/>
         <v>7.9078835140733661E-2</v>
       </c>
-      <c r="K33" s="73">
+      <c r="K33" s="60">
         <f t="shared" si="5"/>
         <v>1.2703278688524762</v>
       </c>
-      <c r="L33" s="73">
-        <f t="shared" si="11"/>
+      <c r="L33" s="60">
+        <f t="shared" si="22"/>
         <v>0.21360655737703382</v>
       </c>
-      <c r="M33" s="73">
-        <f t="shared" si="12"/>
+      <c r="M33" s="60">
+        <f t="shared" si="23"/>
         <v>20.11786885245904</v>
       </c>
       <c r="N33" s="9"/>
@@ -13773,7 +14699,7 @@
       <c r="R33" s="9"/>
       <c r="S33" s="9"/>
     </row>
-    <row r="34" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="34" spans="4:19" x14ac:dyDescent="0.3">
       <c r="D34" s="4">
         <f t="shared" si="7"/>
         <v>44390</v>
@@ -13792,23 +14718,23 @@
         <v>2.6910805937023108E-2</v>
       </c>
       <c r="I34" s="9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="24"/>
         <v>6.2306174231745226E-2</v>
       </c>
       <c r="J34" s="9">
-        <f t="shared" si="14"/>
+        <f t="shared" si="25"/>
         <v>-1.4114724480578156E-2</v>
       </c>
-      <c r="K34" s="73">
+      <c r="K34" s="60">
         <f t="shared" si="5"/>
         <v>3.2103278688524739</v>
       </c>
-      <c r="L34" s="73">
-        <f t="shared" si="11"/>
+      <c r="L34" s="60">
+        <f t="shared" si="22"/>
         <v>2.4236065573770347</v>
       </c>
-      <c r="M34" s="73">
-        <f t="shared" si="12"/>
+      <c r="M34" s="60">
+        <f t="shared" si="23"/>
         <v>18.86786885245904</v>
       </c>
       <c r="N34" s="9"/>
@@ -13818,7 +14744,7 @@
       <c r="R34" s="9"/>
       <c r="S34" s="9"/>
     </row>
-    <row r="35" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="35" spans="4:19" x14ac:dyDescent="0.3">
       <c r="D35" s="4">
         <f t="shared" si="7"/>
         <v>44391</v>
@@ -13837,23 +14763,23 @@
         <v>2.634067270025664E-2</v>
       </c>
       <c r="I35" s="9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="24"/>
         <v>-4.2462845010614592E-3</v>
       </c>
       <c r="J35" s="9">
-        <f t="shared" si="14"/>
+        <f t="shared" si="25"/>
         <v>-2.9778948574046615E-2</v>
       </c>
-      <c r="K35" s="73">
+      <c r="K35" s="60">
         <f t="shared" si="5"/>
         <v>5.1603278688524767</v>
       </c>
-      <c r="L35" s="73">
-        <f t="shared" si="11"/>
+      <c r="L35" s="60">
+        <f t="shared" si="22"/>
         <v>2.2636065573770381</v>
       </c>
-      <c r="M35" s="73">
-        <f t="shared" si="12"/>
+      <c r="M35" s="60">
+        <f t="shared" si="23"/>
         <v>16.267868852459031</v>
       </c>
       <c r="N35" s="9"/>
@@ -13863,7 +14789,7 @@
       <c r="R35" s="9"/>
       <c r="S35" s="9"/>
     </row>
-    <row r="36" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="36" spans="4:19" x14ac:dyDescent="0.3">
       <c r="D36" s="4">
         <f t="shared" si="7"/>
         <v>44392</v>
@@ -13882,23 +14808,23 @@
         <v>-1.4609107659910525E-2</v>
       </c>
       <c r="I36" s="9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="24"/>
         <v>2.3454157782515805E-2</v>
       </c>
       <c r="J36" s="9">
-        <f t="shared" si="14"/>
+        <f t="shared" si="25"/>
         <v>5.0761421319797106E-2</v>
       </c>
-      <c r="K36" s="73">
+      <c r="K36" s="60">
         <f t="shared" si="5"/>
         <v>4.0503278688524773</v>
       </c>
-      <c r="L36" s="73">
-        <f t="shared" si="11"/>
+      <c r="L36" s="60">
+        <f t="shared" si="22"/>
         <v>3.1436065573770335</v>
       </c>
-      <c r="M36" s="73">
-        <f t="shared" si="12"/>
+      <c r="M36" s="60">
+        <f t="shared" si="23"/>
         <v>20.567868852459043</v>
       </c>
       <c r="N36" s="9"/>
@@ -13908,7 +14834,7 @@
       <c r="R36" s="9"/>
       <c r="S36" s="9"/>
     </row>
-    <row r="37" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="37" spans="4:19" x14ac:dyDescent="0.3">
       <c r="D37" s="4">
         <f t="shared" si="7"/>
         <v>44393</v>
@@ -13927,23 +14853,23 @@
         <v>-2.9384266061172726E-2</v>
       </c>
       <c r="I37" s="9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="24"/>
         <v>-2.994791666666663E-2</v>
       </c>
       <c r="J37" s="9">
-        <f t="shared" si="14"/>
+        <f t="shared" si="25"/>
         <v>3.7860914503988097E-2</v>
       </c>
-      <c r="K37" s="73">
+      <c r="K37" s="60">
         <f t="shared" si="5"/>
         <v>1.8503278688524745</v>
       </c>
-      <c r="L37" s="73">
-        <f t="shared" si="11"/>
+      <c r="L37" s="60">
+        <f t="shared" si="22"/>
         <v>1.993606557377035</v>
       </c>
-      <c r="M37" s="73">
-        <f t="shared" si="12"/>
+      <c r="M37" s="60">
+        <f t="shared" si="23"/>
         <v>23.937868852459033</v>
       </c>
       <c r="N37" s="9"/>
@@ -13953,7 +14879,7 @@
       <c r="R37" s="9"/>
       <c r="S37" s="9"/>
     </row>
-    <row r="38" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="38" spans="4:19" x14ac:dyDescent="0.3">
       <c r="D38" s="4">
         <f t="shared" si="7"/>
         <v>44396</v>
@@ -13972,23 +14898,23 @@
         <v>-1.7476262556763378E-2</v>
       </c>
       <c r="I38" s="9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="24"/>
         <v>4.2684563758389249E-2</v>
       </c>
       <c r="J38" s="9">
-        <f t="shared" si="14"/>
+        <f t="shared" si="25"/>
         <v>-7.4366746048928234E-2</v>
       </c>
-      <c r="K38" s="73">
+      <c r="K38" s="60">
         <f t="shared" si="5"/>
         <v>0.58032786885247845</v>
       </c>
-      <c r="L38" s="73">
-        <f t="shared" si="11"/>
+      <c r="L38" s="60">
+        <f t="shared" si="22"/>
         <v>3.5836065573770384</v>
       </c>
-      <c r="M38" s="73">
-        <f t="shared" si="12"/>
+      <c r="M38" s="60">
+        <f t="shared" si="23"/>
         <v>17.067868852459043</v>
       </c>
       <c r="N38" s="9"/>
@@ -13998,7 +14924,7 @@
       <c r="R38" s="9"/>
       <c r="S38" s="9"/>
     </row>
-    <row r="39" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="39" spans="4:19" x14ac:dyDescent="0.3">
       <c r="D39" s="4">
         <f t="shared" si="7"/>
         <v>44397</v>
@@ -14017,23 +14943,23 @@
         <v>9.0056022408963488E-2</v>
       </c>
       <c r="I39" s="9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="24"/>
         <v>3.8619979402676474E-3</v>
       </c>
       <c r="J39" s="9">
-        <f t="shared" si="14"/>
+        <f t="shared" si="25"/>
         <v>2.1167114957314714E-2</v>
       </c>
-      <c r="K39" s="73">
+      <c r="K39" s="60">
         <f t="shared" si="5"/>
         <v>7.0103278688524711</v>
       </c>
-      <c r="L39" s="73">
-        <f t="shared" si="11"/>
+      <c r="L39" s="60">
+        <f t="shared" si="22"/>
         <v>3.7336065573770369</v>
       </c>
-      <c r="M39" s="73">
-        <f t="shared" si="12"/>
+      <c r="M39" s="60">
+        <f t="shared" si="23"/>
         <v>18.877868852459031</v>
       </c>
       <c r="N39" s="9"/>
@@ -14043,7 +14969,7 @@
       <c r="R39" s="9"/>
       <c r="S39" s="9"/>
     </row>
-    <row r="40" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="40" spans="4:19" x14ac:dyDescent="0.3">
       <c r="D40" s="4">
         <f t="shared" si="7"/>
         <v>44398</v>
@@ -14062,23 +14988,23 @@
         <v>8.0945650777335398E-3</v>
       </c>
       <c r="I40" s="9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="24"/>
         <v>-4.4626827391638924E-2</v>
       </c>
       <c r="J40" s="9">
-        <f t="shared" si="14"/>
+        <f t="shared" si="25"/>
         <v>-2.3018781493357676E-2</v>
       </c>
-      <c r="K40" s="73">
+      <c r="K40" s="60">
         <f t="shared" si="5"/>
         <v>7.6403278688524665</v>
       </c>
-      <c r="L40" s="73">
-        <f t="shared" si="11"/>
+      <c r="L40" s="60">
+        <f t="shared" si="22"/>
         <v>1.993606557377035</v>
       </c>
-      <c r="M40" s="73">
-        <f t="shared" si="12"/>
+      <c r="M40" s="60">
+        <f t="shared" si="23"/>
         <v>16.86786885245904</v>
       </c>
       <c r="N40" s="9"/>
@@ -14088,7 +15014,7 @@
       <c r="R40" s="9"/>
       <c r="S40" s="9"/>
     </row>
-    <row r="41" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="41" spans="4:19" x14ac:dyDescent="0.3">
       <c r="D41" s="4">
         <f t="shared" si="7"/>
         <v>44399</v>
@@ -14107,23 +15033,23 @@
         <v>4.4991078256436445E-2</v>
       </c>
       <c r="I41" s="9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="24"/>
         <v>-1.6107382550335614E-2</v>
       </c>
       <c r="J41" s="9">
-        <f t="shared" si="14"/>
+        <f t="shared" si="25"/>
         <v>2.8249912085335893E-2</v>
       </c>
-      <c r="K41" s="73">
+      <c r="K41" s="60">
         <f t="shared" si="5"/>
         <v>11.170327868852468</v>
       </c>
-      <c r="L41" s="73">
-        <f t="shared" si="11"/>
+      <c r="L41" s="60">
+        <f t="shared" si="22"/>
         <v>1.3936065573770335</v>
       </c>
-      <c r="M41" s="73">
-        <f t="shared" si="12"/>
+      <c r="M41" s="60">
+        <f t="shared" si="23"/>
         <v>19.277868852459036</v>
       </c>
       <c r="N41" s="9"/>
@@ -14133,7 +15059,7 @@
       <c r="R41" s="9"/>
       <c r="S41" s="9"/>
     </row>
-    <row r="42" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="42" spans="4:19" x14ac:dyDescent="0.3">
       <c r="D42" s="4">
         <f t="shared" si="7"/>
         <v>44400</v>
@@ -14152,23 +15078,23 @@
         <v>4.6347115501890634E-2</v>
       </c>
       <c r="I42" s="9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="24"/>
         <v>4.2291950886766738E-2</v>
       </c>
       <c r="J42" s="9">
-        <f t="shared" si="14"/>
+        <f t="shared" si="25"/>
         <v>3.1121751025991795E-2</v>
       </c>
-      <c r="K42" s="73">
+      <c r="K42" s="60">
         <f t="shared" si="5"/>
         <v>14.970327868852479</v>
       </c>
-      <c r="L42" s="73">
-        <f t="shared" si="11"/>
+      <c r="L42" s="60">
+        <f t="shared" si="22"/>
         <v>2.9436065573770378</v>
       </c>
-      <c r="M42" s="73">
-        <f t="shared" si="12"/>
+      <c r="M42" s="60">
+        <f t="shared" si="23"/>
         <v>22.00786885245904</v>
       </c>
       <c r="N42" s="9"/>
@@ -14178,7 +15104,7 @@
       <c r="R42" s="9"/>
       <c r="S42" s="9"/>
     </row>
-    <row r="43" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="43" spans="4:19" x14ac:dyDescent="0.3">
       <c r="D43" s="4">
         <f t="shared" si="7"/>
         <v>44403</v>
@@ -14197,23 +15123,23 @@
         <v>7.6932043361697122E-3</v>
       </c>
       <c r="I43" s="9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="24"/>
         <v>4.1884816753925413E-3</v>
       </c>
       <c r="J43" s="9">
-        <f t="shared" si="14"/>
+        <f t="shared" si="25"/>
         <v>6.8546158098394816E-3</v>
       </c>
-      <c r="K43" s="73">
+      <c r="K43" s="60">
         <f t="shared" si="5"/>
         <v>15.630327868852476</v>
       </c>
-      <c r="L43" s="73">
-        <f t="shared" si="11"/>
+      <c r="L43" s="60">
+        <f t="shared" si="22"/>
         <v>3.1036065573770344</v>
       </c>
-      <c r="M43" s="73">
-        <f t="shared" si="12"/>
+      <c r="M43" s="60">
+        <f t="shared" si="23"/>
         <v>22.627868852459031</v>
       </c>
       <c r="N43" s="9"/>
@@ -14223,7 +15149,7 @@
       <c r="R43" s="9"/>
       <c r="S43" s="9"/>
     </row>
-    <row r="44" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="44" spans="4:19" x14ac:dyDescent="0.3">
       <c r="D44" s="4">
         <f t="shared" si="7"/>
         <v>44404</v>
@@ -14242,23 +15168,23 @@
         <v>-7.8658183921341829E-2</v>
       </c>
       <c r="I44" s="9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="24"/>
         <v>-3.4932221063607827E-2</v>
       </c>
       <c r="J44" s="9">
-        <f t="shared" si="14"/>
+        <f t="shared" si="25"/>
         <v>-0.13560997035247602</v>
       </c>
-      <c r="K44" s="73">
+      <c r="K44" s="60">
         <f t="shared" si="5"/>
         <v>8.8303278688524784</v>
       </c>
-      <c r="L44" s="73">
-        <f t="shared" si="11"/>
+      <c r="L44" s="60">
+        <f t="shared" si="22"/>
         <v>1.7636065573770381</v>
       </c>
-      <c r="M44" s="73">
-        <f t="shared" si="12"/>
+      <c r="M44" s="60">
+        <f t="shared" si="23"/>
         <v>10.277868852459036</v>
       </c>
       <c r="N44" s="9"/>
@@ -14268,7 +15194,7 @@
       <c r="R44" s="9"/>
       <c r="S44" s="9"/>
     </row>
-    <row r="45" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="45" spans="4:19" x14ac:dyDescent="0.3">
       <c r="D45" s="4">
         <f t="shared" si="7"/>
         <v>44405</v>
@@ -14287,23 +15213,23 @@
         <v>1.8706842435656013E-2</v>
       </c>
       <c r="I45" s="9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="24"/>
         <v>-1.7017828200972529E-2</v>
       </c>
       <c r="J45" s="9">
-        <f t="shared" si="14"/>
+        <f t="shared" si="25"/>
         <v>1.4735772357723498E-2</v>
       </c>
-      <c r="K45" s="73">
+      <c r="K45" s="60">
         <f t="shared" si="5"/>
         <v>10.320327868852473</v>
       </c>
-      <c r="L45" s="73">
-        <f t="shared" si="11"/>
+      <c r="L45" s="60">
+        <f t="shared" si="22"/>
         <v>1.1336065573770355</v>
       </c>
-      <c r="M45" s="73">
-        <f t="shared" si="12"/>
+      <c r="M45" s="60">
+        <f t="shared" si="23"/>
         <v>11.437868852459033</v>
       </c>
       <c r="N45" s="9"/>
@@ -14313,7 +15239,7 @@
       <c r="R45" s="9"/>
       <c r="S45" s="9"/>
     </row>
-    <row r="46" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="46" spans="4:19" x14ac:dyDescent="0.3">
       <c r="D46" s="4">
         <f t="shared" si="7"/>
         <v>44406</v>
@@ -14332,23 +15258,23 @@
         <v>-3.9314764604387431E-2</v>
       </c>
       <c r="I46" s="9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="24"/>
         <v>-9.6180269304754207E-3</v>
       </c>
       <c r="J46" s="9">
-        <f t="shared" si="14"/>
+        <f t="shared" si="25"/>
         <v>-4.344016024036057E-2</v>
       </c>
-      <c r="K46" s="73">
+      <c r="K46" s="60">
         <f t="shared" si="5"/>
         <v>7.1303278688524756</v>
       </c>
-      <c r="L46" s="73">
-        <f t="shared" si="11"/>
+      <c r="L46" s="60">
+        <f t="shared" si="22"/>
         <v>0.78360655737703411</v>
       </c>
-      <c r="M46" s="73">
-        <f t="shared" si="12"/>
+      <c r="M46" s="60">
+        <f t="shared" si="23"/>
         <v>7.9678688524590342</v>
       </c>
       <c r="N46" s="9"/>
@@ -14358,7 +15284,7 @@
       <c r="R46" s="9"/>
       <c r="S46" s="9"/>
     </row>
-    <row r="47" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="47" spans="4:19" x14ac:dyDescent="0.3">
       <c r="D47" s="4">
         <f t="shared" si="7"/>
         <v>44407</v>
@@ -14377,23 +15303,23 @@
         <v>-3.1173829377806328E-2</v>
       </c>
       <c r="I47" s="9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="24"/>
         <v>1.137624861265274E-2</v>
       </c>
       <c r="J47" s="9">
-        <f t="shared" si="14"/>
+        <f t="shared" si="25"/>
         <v>-5.3657898180865526E-3</v>
       </c>
-      <c r="K47" s="73">
+      <c r="K47" s="60">
         <f t="shared" si="5"/>
         <v>4.7003278688524688</v>
       </c>
-      <c r="L47" s="73">
-        <f t="shared" si="11"/>
+      <c r="L47" s="60">
+        <f t="shared" si="22"/>
         <v>1.1936065573770378</v>
       </c>
-      <c r="M47" s="73">
-        <f t="shared" si="12"/>
+      <c r="M47" s="60">
+        <f t="shared" si="23"/>
         <v>7.5578688524590376</v>
       </c>
       <c r="N47" s="9"/>
@@ -14403,7 +15329,7 @@
       <c r="R47" s="9"/>
       <c r="S47" s="9"/>
     </row>
-    <row r="48" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="48" spans="4:19" x14ac:dyDescent="0.3">
       <c r="D48" s="4">
         <f t="shared" si="7"/>
         <v>44410</v>
@@ -14422,23 +15348,23 @@
         <v>-6.0911016949152241E-3</v>
       </c>
       <c r="I48" s="9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="24"/>
         <v>-3.1824417009602257E-2</v>
       </c>
       <c r="J48" s="9">
-        <f t="shared" si="14"/>
+        <f t="shared" si="25"/>
         <v>2.9868421052631433E-2</v>
       </c>
-      <c r="K48" s="73">
+      <c r="K48" s="60">
         <f t="shared" si="5"/>
         <v>4.240327868852475</v>
       </c>
-      <c r="L48" s="73">
-        <f t="shared" si="11"/>
+      <c r="L48" s="60">
+        <f t="shared" si="22"/>
         <v>3.3606557377034108E-2</v>
       </c>
-      <c r="M48" s="73">
-        <f t="shared" si="12"/>
+      <c r="M48" s="60">
+        <f t="shared" si="23"/>
         <v>9.8278688524590336</v>
       </c>
       <c r="N48" s="9"/>
@@ -14448,7 +15374,7 @@
       <c r="R48" s="9"/>
       <c r="S48" s="9"/>
     </row>
-    <row r="49" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="49" spans="4:19" x14ac:dyDescent="0.3">
       <c r="D49" s="4">
         <f t="shared" si="7"/>
         <v>44411</v>
@@ -14467,23 +15393,23 @@
         <v>-1.9984012789768801E-3</v>
       </c>
       <c r="I49" s="9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="24"/>
         <v>5.9223576083876628E-2</v>
       </c>
       <c r="J49" s="9">
-        <f t="shared" si="14"/>
+        <f t="shared" si="25"/>
         <v>-2.5552574421872976E-2</v>
       </c>
-      <c r="K49" s="73">
+      <c r="K49" s="60">
         <f t="shared" si="5"/>
         <v>4.0903278688524694</v>
       </c>
-      <c r="L49" s="73">
-        <f t="shared" si="11"/>
+      <c r="L49" s="60">
+        <f t="shared" si="22"/>
         <v>2.1236065573770375</v>
       </c>
-      <c r="M49" s="73">
-        <f t="shared" si="12"/>
+      <c r="M49" s="60">
+        <f t="shared" si="23"/>
         <v>7.8278688524590336</v>
       </c>
       <c r="N49" s="9"/>
@@ -14493,7 +15419,7 @@
       <c r="R49" s="9"/>
       <c r="S49" s="9"/>
     </row>
-    <row r="50" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="50" spans="4:19" x14ac:dyDescent="0.3">
       <c r="D50" s="4">
         <f t="shared" si="7"/>
         <v>44412</v>
@@ -14512,23 +15438,23 @@
         <v>-2.05580029368575E-2</v>
       </c>
       <c r="I50" s="9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="24"/>
         <v>5.5912252541465923E-2</v>
       </c>
       <c r="J50" s="9">
-        <f t="shared" si="14"/>
+        <f t="shared" si="25"/>
         <v>-1.7962501638914219E-2</v>
       </c>
-      <c r="K50" s="73">
+      <c r="K50" s="60">
         <f t="shared" si="5"/>
         <v>2.5503278688524773</v>
       </c>
-      <c r="L50" s="73">
-        <f t="shared" si="11"/>
+      <c r="L50" s="60">
+        <f t="shared" si="22"/>
         <v>4.2136065573770338</v>
       </c>
-      <c r="M50" s="73">
-        <f t="shared" si="12"/>
+      <c r="M50" s="60">
+        <f t="shared" si="23"/>
         <v>6.4578688524590433</v>
       </c>
       <c r="N50" s="9"/>
@@ -14538,7 +15464,7 @@
       <c r="R50" s="9"/>
       <c r="S50" s="9"/>
     </row>
-    <row r="51" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="51" spans="4:19" x14ac:dyDescent="0.3">
       <c r="D51" s="4">
         <f t="shared" si="7"/>
         <v>44413</v>
@@ -14557,23 +15483,23 @@
         <v>-7.319067738857854E-2</v>
       </c>
       <c r="I51" s="9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="24"/>
         <v>-3.7750190017735052E-2</v>
       </c>
       <c r="J51" s="9">
-        <f t="shared" si="14"/>
+        <f t="shared" si="25"/>
         <v>8.8117489986647701E-3</v>
       </c>
-      <c r="K51" s="73">
+      <c r="K51" s="60">
         <f t="shared" si="5"/>
         <v>-2.8196721311475272</v>
       </c>
-      <c r="L51" s="73">
-        <f t="shared" si="11"/>
+      <c r="L51" s="60">
+        <f t="shared" si="22"/>
         <v>2.7236065573770318</v>
       </c>
-      <c r="M51" s="73">
-        <f t="shared" si="12"/>
+      <c r="M51" s="60">
+        <f t="shared" si="23"/>
         <v>7.1178688524590399</v>
       </c>
       <c r="N51" s="9"/>
@@ -14583,7 +15509,7 @@
       <c r="R51" s="9"/>
       <c r="S51" s="9"/>
     </row>
-    <row r="52" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="52" spans="4:19" x14ac:dyDescent="0.3">
       <c r="D52" s="4">
         <f t="shared" si="7"/>
         <v>44414</v>
@@ -14602,23 +15528,23 @@
         <v>1.8676470588235183E-2</v>
       </c>
       <c r="I52" s="9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="24"/>
         <v>-0.15113217482885721</v>
       </c>
       <c r="J52" s="9">
-        <f t="shared" si="14"/>
+        <f t="shared" si="25"/>
         <v>-3.4277395447326664E-2</v>
       </c>
-      <c r="K52" s="73">
+      <c r="K52" s="60">
         <f t="shared" si="5"/>
         <v>-1.5496721311475312</v>
       </c>
-      <c r="L52" s="73">
-        <f t="shared" si="11"/>
+      <c r="L52" s="60">
+        <f t="shared" si="22"/>
         <v>-3.0163934426229631</v>
       </c>
-      <c r="M52" s="73">
-        <f t="shared" si="12"/>
+      <c r="M52" s="60">
+        <f t="shared" si="23"/>
         <v>4.5278688524590365</v>
       </c>
       <c r="N52" s="9"/>
@@ -14628,7 +15554,7 @@
       <c r="R52" s="9"/>
       <c r="S52" s="9"/>
     </row>
-    <row r="53" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="53" spans="4:19" x14ac:dyDescent="0.3">
       <c r="D53" s="4">
         <f t="shared" si="7"/>
         <v>44417</v>
@@ -14647,23 +15573,23 @@
         <v>6.4097011693373673E-2</v>
       </c>
       <c r="I53" s="9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="24"/>
         <v>0.14454094292803954</v>
       </c>
       <c r="J53" s="9">
-        <f t="shared" si="14"/>
+        <f t="shared" si="25"/>
         <v>-1.1922707962176315E-2</v>
       </c>
-      <c r="K53" s="73">
+      <c r="K53" s="60">
         <f t="shared" si="5"/>
         <v>2.8903278688524665</v>
       </c>
-      <c r="L53" s="73">
-        <f t="shared" si="11"/>
+      <c r="L53" s="60">
+        <f t="shared" si="22"/>
         <v>1.6436065573770335</v>
       </c>
-      <c r="M53" s="73">
-        <f t="shared" si="12"/>
+      <c r="M53" s="60">
+        <f t="shared" si="23"/>
         <v>3.6578688524590319</v>
       </c>
       <c r="N53" s="9"/>
@@ -14673,7 +15599,7 @@
       <c r="R53" s="9"/>
       <c r="S53" s="9"/>
     </row>
-    <row r="54" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="54" spans="4:19" x14ac:dyDescent="0.3">
       <c r="D54" s="4">
         <f t="shared" si="7"/>
         <v>44418</v>
@@ -14692,23 +15618,23 @@
         <v>-1.1803011803011687E-2</v>
       </c>
       <c r="I54" s="9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="24"/>
         <v>7.0460704607044899E-3</v>
       </c>
       <c r="J54" s="9">
-        <f t="shared" si="14"/>
+        <f t="shared" si="25"/>
         <v>-1.844660194174752E-2</v>
       </c>
-      <c r="K54" s="73">
+      <c r="K54" s="60">
         <f t="shared" si="5"/>
         <v>2.0203278688524762</v>
       </c>
-      <c r="L54" s="73">
-        <f t="shared" si="11"/>
+      <c r="L54" s="60">
+        <f t="shared" si="22"/>
         <v>1.9036065573770315</v>
       </c>
-      <c r="M54" s="73">
-        <f t="shared" si="12"/>
+      <c r="M54" s="60">
+        <f t="shared" si="23"/>
         <v>2.3278688524590336</v>
       </c>
       <c r="N54" s="9"/>
@@ -14718,7 +15644,7 @@
       <c r="R54" s="9"/>
       <c r="S54" s="9"/>
     </row>
-    <row r="55" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="55" spans="4:19" x14ac:dyDescent="0.3">
       <c r="D55" s="4">
         <f t="shared" si="7"/>
         <v>44419</v>
@@ -14737,23 +15663,23 @@
         <v>6.2740252608456837E-2</v>
       </c>
       <c r="I55" s="9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="24"/>
         <v>1.3455328310010728E-2</v>
       </c>
       <c r="J55" s="9">
-        <f t="shared" si="14"/>
+        <f t="shared" si="25"/>
         <v>-2.9532287692524917E-2</v>
       </c>
-      <c r="K55" s="73">
+      <c r="K55" s="60">
         <f t="shared" si="5"/>
         <v>6.5903278688524694</v>
       </c>
-      <c r="L55" s="73">
-        <f t="shared" si="11"/>
+      <c r="L55" s="60">
+        <f t="shared" si="22"/>
         <v>2.4036065573770315</v>
       </c>
-      <c r="M55" s="73">
-        <f t="shared" si="12"/>
+      <c r="M55" s="60">
+        <f t="shared" si="23"/>
         <v>0.23786885245904443</v>
       </c>
       <c r="N55" s="9"/>
@@ -14763,7 +15689,7 @@
       <c r="R55" s="9"/>
       <c r="S55" s="9"/>
     </row>
-    <row r="56" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="56" spans="4:19" x14ac:dyDescent="0.3">
       <c r="D56" s="4">
         <f t="shared" si="7"/>
         <v>44420</v>
@@ -14782,23 +15708,23 @@
         <v>2.9453558971709093E-2</v>
       </c>
       <c r="I56" s="9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="24"/>
         <v>-3.8236856080722248E-2</v>
       </c>
       <c r="J56" s="9">
-        <f t="shared" si="14"/>
+        <f t="shared" si="25"/>
         <v>-0.2336924868957484</v>
       </c>
-      <c r="K56" s="73">
+      <c r="K56" s="60">
         <f t="shared" si="5"/>
         <v>8.8703278688524705</v>
       </c>
-      <c r="L56" s="73">
-        <f t="shared" si="11"/>
+      <c r="L56" s="60">
+        <f t="shared" si="22"/>
         <v>0.96360655737703382</v>
       </c>
-      <c r="M56" s="73">
-        <f t="shared" si="12"/>
+      <c r="M56" s="60">
+        <f t="shared" si="23"/>
         <v>-15.81213114754096</v>
       </c>
       <c r="N56" s="9"/>
@@ -14808,7 +15734,7 @@
       <c r="R56" s="9"/>
       <c r="S56" s="9"/>
     </row>
-    <row r="57" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="57" spans="4:19" x14ac:dyDescent="0.3">
       <c r="D57" s="4">
         <f t="shared" si="7"/>
         <v>44421</v>
@@ -14827,23 +15753,23 @@
         <v>-9.2859831848411956E-3</v>
       </c>
       <c r="I57" s="9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="24"/>
         <v>8.0342352291551844E-2</v>
       </c>
       <c r="J57" s="9">
-        <f t="shared" si="14"/>
+        <f t="shared" si="25"/>
         <v>4.5031350940528236E-2</v>
       </c>
-      <c r="K57" s="73">
+      <c r="K57" s="60">
         <f t="shared" si="5"/>
         <v>8.1303278688524756</v>
       </c>
-      <c r="L57" s="73">
-        <f t="shared" si="11"/>
+      <c r="L57" s="60">
+        <f t="shared" si="22"/>
         <v>3.8736065573770375</v>
       </c>
-      <c r="M57" s="73">
-        <f t="shared" si="12"/>
+      <c r="M57" s="60">
+        <f t="shared" si="23"/>
         <v>-13.442131147540962</v>
       </c>
       <c r="N57" s="9"/>
@@ -14853,7 +15779,7 @@
       <c r="R57" s="9"/>
       <c r="S57" s="9"/>
     </row>
-    <row r="58" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="58" spans="4:19" x14ac:dyDescent="0.3">
       <c r="D58" s="4">
         <f t="shared" si="7"/>
         <v>44424</v>
@@ -14872,23 +15798,23 @@
         <v>2.5585813806206392E-2</v>
       </c>
       <c r="I58" s="9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="24"/>
         <v>4.0122668029644704E-2</v>
       </c>
       <c r="J58" s="9">
-        <f t="shared" si="14"/>
+        <f t="shared" si="25"/>
         <v>0.10581818181818181</v>
       </c>
-      <c r="K58" s="73">
+      <c r="K58" s="60">
         <f t="shared" si="5"/>
         <v>10.150327868852472</v>
       </c>
-      <c r="L58" s="73">
-        <f t="shared" si="11"/>
+      <c r="L58" s="60">
+        <f t="shared" si="22"/>
         <v>5.4436065573770378</v>
       </c>
-      <c r="M58" s="73">
-        <f t="shared" si="12"/>
+      <c r="M58" s="60">
+        <f t="shared" si="23"/>
         <v>-7.6221311475409621</v>
       </c>
       <c r="N58" s="9"/>
@@ -14898,7 +15824,7 @@
       <c r="R58" s="9"/>
       <c r="S58" s="9"/>
     </row>
-    <row r="59" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="59" spans="4:19" x14ac:dyDescent="0.3">
       <c r="D59" s="4">
         <f t="shared" si="7"/>
         <v>44425</v>
@@ -14917,23 +15843,23 @@
         <v>-2.7047054464616527E-2</v>
       </c>
       <c r="I59" s="9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="24"/>
         <v>8.0098280098280128E-2</v>
       </c>
       <c r="J59" s="9">
-        <f t="shared" si="14"/>
+        <f t="shared" si="25"/>
         <v>6.6261098322919931E-2</v>
       </c>
-      <c r="K59" s="73">
+      <c r="K59" s="60">
         <f t="shared" si="5"/>
         <v>7.9603278688524739</v>
       </c>
-      <c r="L59" s="73">
-        <f t="shared" si="11"/>
+      <c r="L59" s="60">
+        <f t="shared" si="22"/>
         <v>8.7036065573770358</v>
       </c>
-      <c r="M59" s="73">
-        <f t="shared" si="12"/>
+      <c r="M59" s="60">
+        <f t="shared" si="23"/>
         <v>-3.5921311475409681</v>
       </c>
       <c r="N59" s="9"/>
@@ -14943,7 +15869,7 @@
       <c r="R59" s="9"/>
       <c r="S59" s="9"/>
     </row>
-    <row r="60" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="60" spans="4:19" x14ac:dyDescent="0.3">
       <c r="D60" s="4">
         <f t="shared" si="7"/>
         <v>44426</v>
@@ -14962,23 +15888,23 @@
         <v>2.0182787509520184E-2</v>
       </c>
       <c r="I60" s="9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="24"/>
         <v>-2.4112829845313932E-2</v>
       </c>
       <c r="J60" s="9">
-        <f t="shared" si="14"/>
+        <f t="shared" si="25"/>
         <v>9.5605242868157525E-3</v>
       </c>
-      <c r="K60" s="73">
+      <c r="K60" s="60">
         <f t="shared" si="5"/>
         <v>9.5503278688524773</v>
       </c>
-      <c r="L60" s="73">
-        <f t="shared" si="11"/>
+      <c r="L60" s="60">
+        <f t="shared" si="22"/>
         <v>7.6436065573770335</v>
       </c>
-      <c r="M60" s="73">
-        <f t="shared" si="12"/>
+      <c r="M60" s="60">
+        <f t="shared" si="23"/>
         <v>-2.9721311475409635</v>
       </c>
       <c r="N60" s="9"/>
@@ -14988,7 +15914,7 @@
       <c r="R60" s="9"/>
       <c r="S60" s="9"/>
     </row>
-    <row r="61" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="61" spans="4:19" x14ac:dyDescent="0.3">
       <c r="D61" s="4">
         <f t="shared" si="7"/>
         <v>44427</v>
@@ -15007,23 +15933,23 @@
         <v>4.5166106756252322E-2</v>
       </c>
       <c r="I61" s="9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="24"/>
         <v>4.8018648018647969E-2</v>
       </c>
       <c r="J61" s="9">
-        <f t="shared" si="14"/>
+        <f t="shared" si="25"/>
         <v>-7.6370856881014193E-2</v>
       </c>
-      <c r="K61" s="73">
+      <c r="K61" s="60">
         <f t="shared" si="5"/>
         <v>13.180327868852473</v>
       </c>
-      <c r="L61" s="73">
-        <f t="shared" si="11"/>
+      <c r="L61" s="60">
+        <f t="shared" si="22"/>
         <v>9.7036065573770358</v>
       </c>
-      <c r="M61" s="73">
-        <f t="shared" si="12"/>
+      <c r="M61" s="60">
+        <f t="shared" si="23"/>
         <v>-7.9721311475409635</v>
       </c>
       <c r="N61" s="9"/>
@@ -15033,7 +15959,7 @@
       <c r="R61" s="9"/>
       <c r="S61" s="9"/>
     </row>
-    <row r="62" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="62" spans="4:19" x14ac:dyDescent="0.3">
       <c r="D62" s="4">
         <f t="shared" si="7"/>
         <v>44428</v>
@@ -15052,23 +15978,23 @@
         <v>1.0952380952381047E-2</v>
       </c>
       <c r="I62" s="9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="24"/>
         <v>6.5169039145907437E-2</v>
       </c>
       <c r="J62" s="9">
-        <f t="shared" si="14"/>
+        <f t="shared" si="25"/>
         <v>6.5983132131635536E-2</v>
       </c>
-      <c r="K62" s="73">
+      <c r="K62" s="60">
         <f t="shared" si="5"/>
         <v>14.100327868852474</v>
       </c>
-      <c r="L62" s="73">
-        <f t="shared" si="11"/>
+      <c r="L62" s="60">
+        <f t="shared" si="22"/>
         <v>12.633606557377036</v>
       </c>
-      <c r="M62" s="73">
-        <f t="shared" si="12"/>
+      <c r="M62" s="60">
+        <f t="shared" si="23"/>
         <v>-3.9821311475409686</v>
       </c>
       <c r="N62" s="9"/>
@@ -15078,7 +16004,7 @@
       <c r="R62" s="9"/>
       <c r="S62" s="9"/>
     </row>
-    <row r="63" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="63" spans="4:19" x14ac:dyDescent="0.3">
       <c r="D63" s="4">
         <f t="shared" si="7"/>
         <v>44431</v>
@@ -15097,23 +16023,23 @@
         <v>2.8144135657089064E-2</v>
       </c>
       <c r="I63" s="9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="24"/>
         <v>-2.6936730006264287E-2</v>
       </c>
       <c r="J63" s="9">
-        <f t="shared" si="14"/>
+        <f t="shared" si="25"/>
         <v>1.7375116351225683E-2</v>
       </c>
-      <c r="K63" s="73">
+      <c r="K63" s="60">
         <f t="shared" si="5"/>
         <v>16.490327868852475</v>
       </c>
-      <c r="L63" s="73">
-        <f t="shared" si="11"/>
+      <c r="L63" s="60">
+        <f t="shared" si="22"/>
         <v>11.343606557377036</v>
       </c>
-      <c r="M63" s="73">
-        <f t="shared" si="12"/>
+      <c r="M63" s="60">
+        <f t="shared" si="23"/>
         <v>-2.8621311475409641</v>
       </c>
       <c r="N63" s="9"/>
@@ -15123,7 +16049,7 @@
       <c r="R63" s="9"/>
       <c r="S63" s="9"/>
     </row>
-    <row r="64" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="64" spans="4:19" x14ac:dyDescent="0.3">
       <c r="D64" s="4">
         <f t="shared" si="7"/>
         <v>44432</v>
@@ -15142,23 +16068,23 @@
         <v>2.7946397892566699E-2</v>
       </c>
       <c r="I64" s="9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="24"/>
         <v>2.1459227467811148E-2</v>
       </c>
       <c r="J64" s="9">
-        <f t="shared" si="14"/>
+        <f t="shared" si="25"/>
         <v>-2.3482769136931925E-2</v>
       </c>
-      <c r="K64" s="73">
+      <c r="K64" s="60">
         <f t="shared" si="5"/>
         <v>18.930327868852473</v>
       </c>
-      <c r="L64" s="73">
-        <f t="shared" si="11"/>
+      <c r="L64" s="60">
+        <f t="shared" si="22"/>
         <v>12.343606557377036</v>
       </c>
-      <c r="M64" s="73">
-        <f t="shared" si="12"/>
+      <c r="M64" s="60">
+        <f t="shared" si="23"/>
         <v>-4.4021311475409561</v>
       </c>
       <c r="N64" s="9"/>
@@ -15168,7 +16094,7 @@
       <c r="R64" s="9"/>
       <c r="S64" s="9"/>
     </row>
-    <row r="65" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="65" spans="4:19" x14ac:dyDescent="0.3">
       <c r="D65" s="4">
         <f t="shared" si="7"/>
         <v>44433</v>
@@ -15187,23 +16113,23 @@
         <v>0</v>
       </c>
       <c r="I65" s="9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="J65" s="9">
-        <f t="shared" si="14"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="K65" s="73">
+      <c r="K65" s="60">
         <f t="shared" si="5"/>
         <v>18.930327868852473</v>
       </c>
-      <c r="L65" s="73">
-        <f t="shared" si="11"/>
+      <c r="L65" s="60">
+        <f t="shared" si="22"/>
         <v>12.343606557377036</v>
       </c>
-      <c r="M65" s="73">
-        <f t="shared" si="12"/>
+      <c r="M65" s="60">
+        <f t="shared" si="23"/>
         <v>-4.4021311475409561</v>
       </c>
       <c r="N65" s="9"/>
@@ -15230,17 +16156,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A669D40-7BC2-4C0E-8B9F-04D2B811963B}">
   <dimension ref="C3:L31"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A10" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+    <sheetView showGridLines="0" topLeftCell="B2" zoomScale="96" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="14.28515625" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" customWidth="1"/>
+    <col min="4" max="4" width="14.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C3" s="12"/>
       <c r="D3" s="12" t="s">
         <v>46</v>
@@ -15248,11 +16174,11 @@
       <c r="E3" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="27" t="s">
+      <c r="F3" s="26" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C4" s="25" t="s">
         <v>29</v>
       </c>
@@ -15262,11 +16188,11 @@
       <c r="E4" s="9">
         <v>0.2</v>
       </c>
-      <c r="F4" s="28">
+      <c r="F4" s="27">
         <v>0.65</v>
       </c>
     </row>
-    <row r="5" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C5" s="25" t="s">
         <v>30</v>
       </c>
@@ -15277,7 +16203,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="6" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C6" s="25" t="s">
         <v>61</v>
       </c>
@@ -15285,14 +16211,14 @@
         <v>8.5000000000000006E-2</v>
       </c>
     </row>
-    <row r="8" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C8" s="66" t="s">
+    <row r="8" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C8" s="70" t="s">
         <v>56</v>
       </c>
-      <c r="D8" s="67"/>
-      <c r="E8" s="67"/>
-    </row>
-    <row r="9" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="D8" s="71"/>
+      <c r="E8" s="71"/>
+    </row>
+    <row r="9" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C9" s="25"/>
       <c r="D9" s="25" t="s">
         <v>29</v>
@@ -15301,21 +16227,33 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C10" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
-    </row>
-    <row r="11" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="D10" s="27">
+        <f>POWER(E4,2)</f>
+        <v>4.0000000000000008E-2</v>
+      </c>
+      <c r="E10" s="27">
+        <f>F4*E4*E5</f>
+        <v>2.86E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C11" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-    </row>
-    <row r="13" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="D11" s="27">
+        <f>E10</f>
+        <v>2.86E-2</v>
+      </c>
+      <c r="E11" s="27">
+        <f>POWER(E5,2)</f>
+        <v>4.8399999999999999E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C13" s="12"/>
       <c r="D13" s="12" t="s">
         <v>62</v>
@@ -15324,99 +16262,138 @@
         <v>63</v>
       </c>
     </row>
-    <row r="14" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C14" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D14" s="28"/>
-      <c r="E14" s="9"/>
-    </row>
-    <row r="15" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="D14" s="27">
+        <f>($E$11-$D$11)/($D$10-$E$10-$D$11+$E$11)</f>
+        <v>0.63461538461538447</v>
+      </c>
+      <c r="E14" s="9">
+        <f>D4-D6</f>
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="15" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C15" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="28"/>
-      <c r="E15" s="9"/>
-      <c r="L15" s="29"/>
-    </row>
-    <row r="18" spans="3:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C18" s="68" t="s">
+      <c r="D15" s="27">
+        <f>1-D14</f>
+        <v>0.36538461538461553</v>
+      </c>
+      <c r="E15" s="9">
+        <f>D5-D6</f>
+        <v>5.7999999999999982E-2</v>
+      </c>
+      <c r="L15" s="28"/>
+    </row>
+    <row r="18" spans="3:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C18" s="72" t="s">
         <v>64</v>
       </c>
-      <c r="D18" s="68"/>
-      <c r="L18" s="29"/>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C19" s="30"/>
-      <c r="D19" s="30" t="s">
+      <c r="D18" s="72"/>
+      <c r="L18" s="28"/>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C19" s="29"/>
+      <c r="D19" s="29" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C20" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D20" s="28"/>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="D20" s="27">
+        <f>D14</f>
+        <v>0.63461538461538447</v>
+      </c>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C21" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="D21" s="28"/>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="D21" s="27">
+        <f>D15</f>
+        <v>0.36538461538461553</v>
+      </c>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C22" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="D22" s="9"/>
-    </row>
-    <row r="23" spans="3:12" ht="18" x14ac:dyDescent="0.35">
+      <c r="D22" s="9">
+        <f>POWER(D10*POWER(D20,2)+E11*POWER(D21,2)+2*D20*D21*E10,0.5)</f>
+        <v>0.18930033117936002</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12" ht="15.6" x14ac:dyDescent="0.35">
       <c r="C23" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="D23" s="10"/>
-    </row>
-    <row r="25" spans="3:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C25" s="69" t="s">
+      <c r="D23" s="10">
+        <f>D4*D20+D5*D21</f>
+        <v>0.13792307692307693</v>
+      </c>
+    </row>
+    <row r="25" spans="3:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C25" s="73" t="s">
         <v>65</v>
       </c>
-      <c r="D25" s="69"/>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C26" s="30"/>
-      <c r="D26" s="30" t="s">
+      <c r="D25" s="73"/>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C26" s="29"/>
+      <c r="D26" s="29" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C27" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D27" s="28"/>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="D27" s="27">
+        <f>(E14*$E$11-E15*$D$11)/(E15*$D$10-E14*$E$10-E15*$D$11+E14*$E$11)</f>
+        <v>0.46099806201550425</v>
+      </c>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C28" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="D28" s="28"/>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="D28" s="27">
+        <f>1-D27</f>
+        <v>0.53900193798449569</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C29" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="D29" s="9"/>
-    </row>
-    <row r="30" spans="3:12" ht="18" x14ac:dyDescent="0.35">
+      <c r="D29" s="9">
+        <f>POWER(D10*POWER(D27,2)+E11*POWER(D28,2)+2*D27*D28*E10,0.5)</f>
+        <v>0.19176828777320301</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" ht="15.6" x14ac:dyDescent="0.35">
       <c r="C30" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="D30" s="9"/>
-    </row>
-    <row r="31" spans="3:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D30" s="10">
+        <f>D4*D27+D5*D28</f>
+        <v>0.13931201550387595</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C31" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="D31" s="9"/>
+      <c r="D31" s="9">
+        <f>(D30-D6)/D29</f>
+        <v>0.2832168766512046</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -15431,19 +16408,21 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27D36219-6F37-412C-8D28-AB2607766C65}">
-  <dimension ref="C3:H36"/>
+  <dimension ref="C3:Q36"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31:F36"/>
+    <sheetView showGridLines="0" topLeftCell="A16" zoomScale="93" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="14.28515625" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" customWidth="1"/>
+    <col min="4" max="4" width="14.44140625" customWidth="1"/>
+    <col min="16" max="17" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C3" s="12"/>
       <c r="D3" s="12" t="s">
         <v>46</v>
@@ -15451,17 +16430,21 @@
       <c r="E3" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="27" t="s">
+      <c r="F3" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="G3" s="27" t="s">
+      <c r="G3" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="H3" s="27" t="s">
+      <c r="H3" s="26" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="4" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="N3" s="28">
+        <f>L5</f>
+        <v>7.1999999999999995E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C4" s="25" t="s">
         <v>29</v>
       </c>
@@ -15471,17 +16454,21 @@
       <c r="E4" s="9">
         <v>0.25</v>
       </c>
-      <c r="F4" s="28">
+      <c r="F4" s="27">
         <v>0.4</v>
       </c>
-      <c r="G4" s="28">
+      <c r="G4" s="27">
         <v>0.55000000000000004</v>
       </c>
-      <c r="H4" s="28">
+      <c r="H4" s="27">
         <v>0.35</v>
       </c>
-    </row>
-    <row r="5" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="N4" s="28">
+        <f>M5</f>
+        <v>4.7E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C5" s="25" t="s">
         <v>30</v>
       </c>
@@ -15491,8 +16478,20 @@
       <c r="E5" s="9">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="6" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="L5" s="28">
+        <f>E16</f>
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="M5" s="28">
+        <f>E17</f>
+        <v>4.7E-2</v>
+      </c>
+      <c r="N5" s="28">
+        <f>E18</f>
+        <v>3.3999999999999989E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C6" s="25" t="s">
         <v>31</v>
       </c>
@@ -15502,24 +16501,59 @@
       <c r="E6" s="9">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="7" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="J6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C7" s="25" t="s">
         <v>61</v>
       </c>
       <c r="D7" s="9">
         <v>8.5000000000000006E-2</v>
       </c>
-    </row>
-    <row r="9" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C9" s="66" t="s">
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="O7">
+        <f t="array" ref="O7:Q7">MMULT(L5:N5,H11:J13)</f>
+        <v>0.7423979691466509</v>
+      </c>
+      <c r="P7">
+        <v>0.90703313154982768</v>
+      </c>
+      <c r="Q7">
+        <v>0.44962572414241908</v>
+      </c>
+    </row>
+    <row r="8" spans="3:17" x14ac:dyDescent="0.3">
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="3:17" x14ac:dyDescent="0.3">
+      <c r="C9" s="70" t="s">
         <v>56</v>
       </c>
-      <c r="D9" s="67"/>
-      <c r="E9" s="67"/>
-      <c r="F9" s="67"/>
-    </row>
-    <row r="10" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="D9" s="71"/>
+      <c r="E9" s="71"/>
+      <c r="F9" s="71"/>
+      <c r="O9">
+        <f t="array" ref="O9">MMULT(O7:Q7,J6:J8)</f>
+        <v>2.0990568248388977</v>
+      </c>
+      <c r="P9">
+        <f t="array" ref="P9">MMULT(O7:Q7,N3:N5)</f>
+        <v>0.11137048558224301</v>
+      </c>
+    </row>
+    <row r="10" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C10" s="25"/>
       <c r="D10" s="25" t="s">
         <v>29</v>
@@ -15531,31 +16565,102 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C11" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
-    </row>
-    <row r="12" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="D11" s="30">
+        <f>POWER(E4,2)</f>
+        <v>6.25E-2</v>
+      </c>
+      <c r="E11" s="30">
+        <f>F4*E4*E5</f>
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="F11" s="30">
+        <f>G4*E4*E6</f>
+        <v>2.0625000000000001E-2</v>
+      </c>
+      <c r="H11">
+        <f t="array" ref="H11:J13">MINVERSE(D11:F13)</f>
+        <v>24.674868189806677</v>
+      </c>
+      <c r="I11">
+        <v>-8.103885959773482</v>
+      </c>
+      <c r="J11">
+        <v>-19.214997070884593</v>
+      </c>
+      <c r="L11">
+        <f t="array" ref="L11:N11">MMULT(H8:J8,H11:J13)</f>
+        <v>-2.6440148408513977</v>
+      </c>
+      <c r="M11">
+        <v>21.268632428562128</v>
+      </c>
+      <c r="N11">
+        <v>37.935299095228793</v>
+      </c>
+    </row>
+    <row r="12" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C12" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="31"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="31"/>
-    </row>
-    <row r="13" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C13" s="32" t="s">
+      <c r="D12" s="30">
+        <f>E11</f>
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="E12" s="30">
+        <f>POWER(E5,2)</f>
+        <v>3.2399999999999998E-2</v>
+      </c>
+      <c r="F12" s="30">
+        <f>H4*E5*E6</f>
+        <v>9.4500000000000001E-3</v>
+      </c>
+      <c r="H12">
+        <v>-8.103885959773482</v>
+      </c>
+      <c r="I12">
+        <v>37.834407342315956</v>
+      </c>
+      <c r="J12">
+        <v>-8.4618889539803437</v>
+      </c>
+    </row>
+    <row r="13" spans="3:17" x14ac:dyDescent="0.3">
+      <c r="C13" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="D13" s="31"/>
-      <c r="E13" s="31"/>
-      <c r="F13" s="31"/>
-    </row>
-    <row r="15" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="D13" s="30">
+        <f>F11</f>
+        <v>2.0625000000000001E-2</v>
+      </c>
+      <c r="E13" s="30">
+        <f>F12</f>
+        <v>9.4500000000000001E-3</v>
+      </c>
+      <c r="F13" s="30">
+        <f>POWER(E6,2)</f>
+        <v>2.2499999999999999E-2</v>
+      </c>
+      <c r="H13">
+        <v>-19.214997070884593</v>
+      </c>
+      <c r="I13">
+        <v>-8.4618889539803437</v>
+      </c>
+      <c r="J13">
+        <v>65.612185120093727</v>
+      </c>
+    </row>
+    <row r="14" spans="3:17" x14ac:dyDescent="0.3">
+      <c r="L14">
+        <f t="array" ref="L14">MMULT(L11:N11,J6:J8)</f>
+        <v>56.559916682939523</v>
+      </c>
+    </row>
+    <row r="15" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C15" s="12"/>
       <c r="D15" s="12" t="s">
         <v>62</v>
@@ -15564,116 +16669,213 @@
         <v>63</v>
       </c>
     </row>
-    <row r="16" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C16" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D16" s="28"/>
-      <c r="E16" s="9"/>
-    </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D16" s="27">
+        <f>L18</f>
+        <v>-4.674714879219273E-2</v>
+      </c>
+      <c r="E16" s="9">
+        <f>D4-D7</f>
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="J16" s="27">
+        <f>H18</f>
+        <v>-4.674714879219273E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C17" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="D17" s="28"/>
-      <c r="E17" s="9"/>
-    </row>
-    <row r="18" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C18" s="32" t="s">
+      <c r="D17" s="27">
+        <f>M18</f>
+        <v>0.37603719517107248</v>
+      </c>
+      <c r="E17" s="9">
+        <f>D5-D7</f>
+        <v>4.7E-2</v>
+      </c>
+      <c r="J17" s="27">
+        <f>I18</f>
+        <v>0.37603719517107248</v>
+      </c>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C18" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="D18" s="28"/>
-      <c r="E18" s="9"/>
-    </row>
-    <row r="21" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C21" s="68" t="s">
+      <c r="D18" s="27">
+        <f>1-D16-D17</f>
+        <v>0.67070995362112018</v>
+      </c>
+      <c r="E18" s="9">
+        <f>D6-D7</f>
+        <v>3.3999999999999989E-2</v>
+      </c>
+      <c r="H18" s="74">
+        <f>D23</f>
+        <v>-4.674714879219273E-2</v>
+      </c>
+      <c r="I18" s="74">
+        <f>D24</f>
+        <v>0.37603719517107248</v>
+      </c>
+      <c r="J18" s="27">
+        <f>D25</f>
+        <v>0.67070995362112018</v>
+      </c>
+      <c r="L18">
+        <f>L11/L14</f>
+        <v>-4.674714879219273E-2</v>
+      </c>
+      <c r="M18">
+        <f>M11/L14</f>
+        <v>0.37603719517107248</v>
+      </c>
+      <c r="N18">
+        <f>N11/L14</f>
+        <v>0.67070995362112029</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C21" s="72" t="s">
         <v>64</v>
       </c>
-      <c r="D21" s="68"/>
-    </row>
-    <row r="22" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C22" s="30"/>
-      <c r="D22" s="30" t="s">
+      <c r="D21" s="72"/>
+      <c r="H21">
+        <f t="array" ref="H21:J21">MMULT(H18:J18,H11:J13)</f>
+        <v>-17.088532075239055</v>
+      </c>
+      <c r="I21">
+        <v>8.9305048328495893</v>
+      </c>
+      <c r="J21">
+        <v>41.723006977888751</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C22" s="29"/>
+      <c r="D22" s="29" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C23" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D23" s="28"/>
-    </row>
-    <row r="24" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D23" s="27">
+        <f>D16</f>
+        <v>-4.674714879219273E-2</v>
+      </c>
+      <c r="J23">
+        <f t="array" ref="J23">MMULT(H21:J21,J16:J18)</f>
+        <v>32.141078215441262</v>
+      </c>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C24" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="D24" s="28"/>
-    </row>
-    <row r="25" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C25" s="32" t="s">
+      <c r="D24" s="27">
+        <f>D17</f>
+        <v>0.37603719517107248</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C25" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="D25" s="28"/>
-    </row>
-    <row r="26" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D25" s="27">
+        <f>D18</f>
+        <v>0.67070995362112018</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C26" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="D26" s="9"/>
-    </row>
-    <row r="27" spans="3:5" ht="18" x14ac:dyDescent="0.35">
+      <c r="D26" s="9">
+        <f>POWER(J23,0.5)</f>
+        <v>5.6693102063162204</v>
+      </c>
+    </row>
+    <row r="27" spans="3:14" ht="15.6" x14ac:dyDescent="0.35">
       <c r="C27" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="D27" s="9"/>
-    </row>
-    <row r="29" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C29" s="69" t="s">
+      <c r="D27" s="9">
+        <f>D23*D4+D5*D24+D6*D25</f>
+        <v>0.12211209188312061</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C29" s="73" t="s">
         <v>65</v>
       </c>
-      <c r="D29" s="69"/>
-    </row>
-    <row r="30" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C30" s="30"/>
-      <c r="D30" s="30" t="s">
+      <c r="D29" s="73"/>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C30" s="29"/>
+      <c r="D30" s="29" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C31" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D31" s="28"/>
-    </row>
-    <row r="32" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D31" s="27">
+        <f>O7/O9</f>
+        <v>0.35368169187302961</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C32" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="D32" s="28"/>
-    </row>
-    <row r="33" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C33" s="32" t="s">
+      <c r="D32" s="27">
+        <f>P7/O9</f>
+        <v>0.43211461491493558</v>
+      </c>
+    </row>
+    <row r="33" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C33" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="D33" s="28"/>
-    </row>
-    <row r="34" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D33" s="27">
+        <f>1-D31-D32</f>
+        <v>0.21420369321203475</v>
+      </c>
+    </row>
+    <row r="34" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C34" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="D34" s="9"/>
-    </row>
-    <row r="35" spans="3:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="D34" s="9">
+        <f>POWER(P9,0.5)</f>
+        <v>0.3337221682511412</v>
+      </c>
+    </row>
+    <row r="35" spans="3:4" ht="15.6" x14ac:dyDescent="0.35">
       <c r="C35" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="D35" s="9"/>
-    </row>
-    <row r="36" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D35" s="9">
+        <f>D31*D4+D5*D32+D33*D6</f>
+        <v>0.13805739428506927</v>
+      </c>
+    </row>
+    <row r="36" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C36" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="D36" s="9"/>
+      <c r="D36" s="9">
+        <f>(D35-D7)/D35</f>
+        <v>0.38431403518679447</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -15690,32 +16892,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8A04DDB-77E5-4FA6-AF43-DA71C6BC68B1}">
   <dimension ref="B2:K24"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20:K20"/>
+    <sheetView showGridLines="0" zoomScale="107" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="8" max="8" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B2" s="33" t="s">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B2" s="32" t="s">
         <v>70</v>
       </c>
-      <c r="C2" s="34">
+      <c r="C2" s="33">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B3" s="35" t="s">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B3" s="34" t="s">
         <v>71</v>
       </c>
-      <c r="C3" s="36">
+      <c r="C3" s="35">
         <v>5.3</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B5" s="1"/>
       <c r="C5" s="1" t="s">
         <v>72</v>
@@ -15727,54 +16929,54 @@
         <v>74</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B6" s="27" t="s">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B6" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="C6" s="37">
+      <c r="C6" s="36">
         <v>4.7</v>
       </c>
-      <c r="D6" s="37">
+      <c r="D6" s="36">
         <v>2.2999999999999998</v>
       </c>
-      <c r="E6" s="37">
+      <c r="E6" s="36">
         <v>1.7</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="C7" s="37">
+      <c r="C7" s="36">
         <v>1.46</v>
       </c>
-      <c r="D7" s="37">
+      <c r="D7" s="36">
         <v>0.92</v>
       </c>
-      <c r="E7" s="37">
+      <c r="E7" s="36">
         <v>1.21</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B8" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="C8" s="37">
+      <c r="C8" s="36">
         <v>6.4</v>
       </c>
-      <c r="D8" s="37">
+      <c r="D8" s="36">
         <v>2.1</v>
       </c>
-      <c r="E8" s="37">
+      <c r="E8" s="36">
         <v>4.3</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="H9" s="42" t="s">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="H9" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="1"/>
       <c r="C10" s="1" t="s">
         <v>72</v>
@@ -15785,53 +16987,80 @@
       <c r="E10" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="I10" s="38"/>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B11" s="27" t="s">
+      <c r="I10" s="37"/>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B11" s="26" t="s">
         <v>78</v>
       </c>
-      <c r="C11" s="39"/>
-      <c r="D11" s="39"/>
-      <c r="E11" s="39"/>
-    </row>
-    <row r="12" spans="2:9" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="C11" s="38">
+        <f>C6+C7*$C$2</f>
+        <v>25.139999999999997</v>
+      </c>
+      <c r="D11" s="38">
+        <f>D6+D7*$C$2</f>
+        <v>15.18</v>
+      </c>
+      <c r="E11" s="38">
+        <f>E6+E7*$C$2</f>
+        <v>18.639999999999997</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" ht="16.2" x14ac:dyDescent="0.3">
       <c r="B12" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="39"/>
-      <c r="D12" s="39"/>
-      <c r="E12" s="39"/>
-      <c r="H12" s="27" t="s">
+      <c r="C12" s="38">
+        <f>POWER(C7,2)*POWER($C$3,2)+POWER(C8,2)</f>
+        <v>100.83664400000001</v>
+      </c>
+      <c r="D12" s="38">
+        <f t="shared" ref="D12:E12" si="0">POWER(D7,2)*POWER($C$3,2)+POWER(D8,2)</f>
+        <v>28.185376000000002</v>
+      </c>
+      <c r="E12" s="38">
+        <f>POWER(E7,2)*POWER($C$3,2)+POWER(E8,2)</f>
+        <v>59.616568999999998</v>
+      </c>
+      <c r="H12" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="I12" s="39">
+      <c r="I12" s="38">
         <v>0.98</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="39"/>
-      <c r="D13" s="39"/>
-      <c r="E13" s="39"/>
-      <c r="H13" s="27" t="s">
+      <c r="C13" s="38">
+        <f>POWER(C12,0.5)</f>
+        <v>10.041745067467108</v>
+      </c>
+      <c r="D13" s="38">
+        <f>POWER(D12,0.5)</f>
+        <v>5.3089901111228306</v>
+      </c>
+      <c r="E13" s="38">
+        <f>POWER(E12,0.5)</f>
+        <v>7.7211766590332589</v>
+      </c>
+      <c r="H13" s="26" t="s">
         <v>80</v>
       </c>
-      <c r="I13" s="39">
+      <c r="I13" s="38">
         <v>0.42</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="H14" s="27" t="s">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="H14" s="26" t="s">
         <v>81</v>
       </c>
-      <c r="I14" s="39">
+      <c r="I14" s="38">
         <v>0.31</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="1"/>
       <c r="C15" s="1" t="s">
         <v>72</v>
@@ -15842,44 +17071,71 @@
       <c r="E15" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="H15" s="27" t="s">
+      <c r="H15" s="26" t="s">
         <v>82</v>
       </c>
-      <c r="I15" s="39">
+      <c r="I15" s="38">
         <v>0.27</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C16" s="39"/>
-      <c r="D16" s="39"/>
-      <c r="E16" s="39"/>
-      <c r="H16" s="27" t="s">
+      <c r="C16" s="38">
+        <f>C12</f>
+        <v>100.83664400000001</v>
+      </c>
+      <c r="D16" s="38">
+        <f>POWER($C$3,2)*C7*D7</f>
+        <v>37.730488000000001</v>
+      </c>
+      <c r="E16" s="38">
+        <f>POWER($C$3,2)*C7*E7</f>
+        <v>49.623794000000004</v>
+      </c>
+      <c r="H16" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="I16" s="39">
+      <c r="I16" s="38">
         <v>0.54</v>
       </c>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B17" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C17" s="39"/>
-      <c r="D17" s="39"/>
-      <c r="E17" s="39"/>
-    </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C17" s="38">
+        <f>D16</f>
+        <v>37.730488000000001</v>
+      </c>
+      <c r="D17" s="38">
+        <f>D12</f>
+        <v>28.185376000000002</v>
+      </c>
+      <c r="E17" s="38">
+        <f>POWER($C$3,2)*D7*E7</f>
+        <v>31.269787999999998</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B18" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C18" s="39"/>
-      <c r="D18" s="39"/>
-      <c r="E18" s="39"/>
-    </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C18" s="38">
+        <f>E16</f>
+        <v>49.623794000000004</v>
+      </c>
+      <c r="D18" s="38">
+        <f>E17</f>
+        <v>31.269787999999998</v>
+      </c>
+      <c r="E18" s="38">
+        <f>E12</f>
+        <v>59.616568999999998</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.3">
       <c r="H19" s="1"/>
       <c r="I19" s="1" t="s">
         <v>72</v>
@@ -15891,37 +17147,58 @@
         <v>74</v>
       </c>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.3">
       <c r="H20" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="I20" s="40"/>
-      <c r="J20" s="40"/>
-      <c r="K20" s="40"/>
-    </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="I20" s="39">
+        <f>(($I14^2)*$I$12+($I$13^2)*C7)/($I$13^2+$I14^2)</f>
+        <v>1.2907229357798164</v>
+      </c>
+      <c r="J20" s="39">
+        <f>(($I15^2)*$I$12+($I$13^2)*D7)/($I$13^2+$I15^2)</f>
+        <v>0.93754512635379073</v>
+      </c>
+      <c r="K20" s="39">
+        <f>(($I16^2)*$I$12+($I$13^2)*E7)/($I$13^2+$I16^2)</f>
+        <v>1.0666923076923078</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B21" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="C21" s="39"/>
-    </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B22" s="27" t="s">
+      <c r="C21" s="38">
+        <f>AVERAGE(C7:E7)</f>
+        <v>1.1966666666666665</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B22" s="26" t="s">
         <v>86</v>
       </c>
-      <c r="C22" s="39"/>
-    </row>
-    <row r="23" spans="2:11" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="C22" s="38">
+        <f>AVERAGE(C6:E6)</f>
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" ht="16.2" x14ac:dyDescent="0.3">
       <c r="B23" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="C23" s="39"/>
-    </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B24" s="27" t="s">
+      <c r="C23" s="38">
+        <f>(C21^2)*(C3^2)+SUMSQ(C8:E8)/9</f>
+        <v>47.320747666666662</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B24" s="26" t="s">
         <v>88</v>
       </c>
-      <c r="C24" s="39"/>
+      <c r="C24" s="38">
+        <f>C22+C21*C2</f>
+        <v>19.653333333333329</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15933,32 +17210,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2215CB2-C086-4C94-88B9-B6AE06527324}">
   <dimension ref="B2:K24"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+    <sheetView showGridLines="0" zoomScale="94" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="8" max="8" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B2" s="33" t="s">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B2" s="32" t="s">
         <v>70</v>
       </c>
-      <c r="C2" s="34">
+      <c r="C2" s="33">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B3" s="35" t="s">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B3" s="34" t="s">
         <v>71</v>
       </c>
-      <c r="C3" s="36">
+      <c r="C3" s="35">
         <v>6.5</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B5" s="1"/>
       <c r="C5" s="1" t="s">
         <v>72</v>
@@ -15970,67 +17247,67 @@
         <v>74</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B6" s="27" t="s">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B6" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="C6" s="39">
+      <c r="C6" s="38">
         <v>4.7</v>
       </c>
-      <c r="D6" s="39">
+      <c r="D6" s="38">
         <v>2.2999999999999998</v>
       </c>
-      <c r="E6" s="39">
+      <c r="E6" s="38">
         <v>1.7</v>
       </c>
-      <c r="H6" s="27" t="s">
+      <c r="H6" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="I6" s="41">
+      <c r="I6" s="40">
         <v>0.42</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="C7" s="39">
+      <c r="C7" s="38">
         <v>1.46</v>
       </c>
-      <c r="D7" s="39">
+      <c r="D7" s="38">
         <v>0.92</v>
       </c>
-      <c r="E7" s="39">
+      <c r="E7" s="38">
         <v>1.21</v>
       </c>
-      <c r="H7" s="27" t="s">
+      <c r="H7" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="I7" s="41">
+      <c r="I7" s="40">
         <v>0.27</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B8" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="C8" s="39">
+      <c r="C8" s="38">
         <v>6.4</v>
       </c>
-      <c r="D8" s="39">
+      <c r="D8" s="38">
         <v>2.1</v>
       </c>
-      <c r="E8" s="39">
+      <c r="E8" s="38">
         <v>4.3</v>
       </c>
-      <c r="H8" s="27" t="s">
+      <c r="H8" s="26" t="s">
         <v>74</v>
       </c>
-      <c r="I8" s="41">
+      <c r="I8" s="40">
         <v>0.31</v>
       </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="1"/>
       <c r="C10" s="1" t="s">
         <v>72</v>
@@ -16041,53 +17318,80 @@
       <c r="E10" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="I10" s="38"/>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B11" s="27" t="s">
+      <c r="I10" s="37"/>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B11" s="26" t="s">
         <v>78</v>
       </c>
-      <c r="C11" s="39"/>
-      <c r="D11" s="39"/>
-      <c r="E11" s="39"/>
-    </row>
-    <row r="12" spans="2:9" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="C11" s="38">
+        <f>C6+C7*$C$2</f>
+        <v>26.599999999999998</v>
+      </c>
+      <c r="D11" s="38">
+        <f>D6+D7*$C$2</f>
+        <v>16.100000000000001</v>
+      </c>
+      <c r="E11" s="38">
+        <f>E6+E7*$C$2</f>
+        <v>19.849999999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" ht="16.2" x14ac:dyDescent="0.3">
       <c r="B12" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="39"/>
-      <c r="D12" s="39"/>
-      <c r="E12" s="39"/>
-      <c r="H12" s="27" t="s">
+      <c r="C12" s="38">
+        <f>POWER(C7,2)*POWER($C$3,2)+POWER(C8,2)</f>
+        <v>131.02010000000001</v>
+      </c>
+      <c r="D12" s="38">
+        <f>POWER(D7,2)*POWER($C$3,2)+POWER(D8,2)</f>
+        <v>40.170400000000001</v>
+      </c>
+      <c r="E12" s="38">
+        <f>POWER(E7,2)*POWER($C$3,2)+POWER(E8,2)</f>
+        <v>80.348224999999999</v>
+      </c>
+      <c r="H12" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="I12" s="39">
+      <c r="I12" s="38">
         <v>0.98</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="39"/>
-      <c r="D13" s="39"/>
-      <c r="E13" s="39"/>
-      <c r="H13" s="27" t="s">
+      <c r="C13" s="38">
+        <f>POWER(C12,0.5)</f>
+        <v>11.446401181157334</v>
+      </c>
+      <c r="D13" s="38">
+        <f>POWER(D12,0.5)</f>
+        <v>6.3380123067094152</v>
+      </c>
+      <c r="E13" s="38">
+        <f>POWER(E12,0.5)</f>
+        <v>8.9637171419004513</v>
+      </c>
+      <c r="H13" s="26" t="s">
         <v>80</v>
       </c>
-      <c r="I13" s="39">
+      <c r="I13" s="38">
         <v>0.42</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="H14" s="27" t="s">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="H14" s="26" t="s">
         <v>81</v>
       </c>
-      <c r="I14" s="39">
+      <c r="I14" s="38">
         <v>0.31</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="1"/>
       <c r="C15" s="1" t="s">
         <v>72</v>
@@ -16098,44 +17402,71 @@
       <c r="E15" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="H15" s="27" t="s">
+      <c r="H15" s="26" t="s">
         <v>82</v>
       </c>
-      <c r="I15" s="39">
+      <c r="I15" s="38">
         <v>0.27</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C16" s="39"/>
-      <c r="D16" s="39"/>
-      <c r="E16" s="39"/>
-      <c r="H16" s="27" t="s">
+      <c r="C16" s="38">
+        <f>C12</f>
+        <v>131.02010000000001</v>
+      </c>
+      <c r="D16" s="38">
+        <f>POWER($C$3,2)*C7*D7</f>
+        <v>56.7502</v>
+      </c>
+      <c r="E16" s="38">
+        <f>POWER($C$3,2)*C7*E7</f>
+        <v>74.638849999999991</v>
+      </c>
+      <c r="H16" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="I16" s="39">
+      <c r="I16" s="38">
         <v>0.54</v>
       </c>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B17" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C17" s="39"/>
-      <c r="D17" s="39"/>
-      <c r="E17" s="39"/>
-    </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C17" s="38">
+        <f>D16</f>
+        <v>56.7502</v>
+      </c>
+      <c r="D17" s="38">
+        <f>D12</f>
+        <v>40.170400000000001</v>
+      </c>
+      <c r="E17" s="38">
+        <f>POWER($C$3,2)*D7*E7</f>
+        <v>47.032700000000006</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B18" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C18" s="39"/>
-      <c r="D18" s="39"/>
-      <c r="E18" s="39"/>
-    </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C18" s="38">
+        <f>E16</f>
+        <v>74.638849999999991</v>
+      </c>
+      <c r="D18" s="38">
+        <f>E17</f>
+        <v>47.032700000000006</v>
+      </c>
+      <c r="E18" s="38">
+        <f>E12</f>
+        <v>80.348224999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.3">
       <c r="H19" s="1"/>
       <c r="I19" s="1" t="s">
         <v>72</v>
@@ -16147,37 +17478,58 @@
         <v>74</v>
       </c>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.3">
       <c r="H20" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="I20" s="40"/>
-      <c r="J20" s="40"/>
-      <c r="K20" s="40"/>
-    </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="I20" s="39">
+        <f>(($I14^2)*$I$12+($I$13^2)*C7)/($I$13^2+$I14^2)</f>
+        <v>1.2907229357798164</v>
+      </c>
+      <c r="J20" s="39">
+        <f>(($I15^2)*$I$12+($I$13^2)*D7)/($I$13^2+$I15^2)</f>
+        <v>0.93754512635379073</v>
+      </c>
+      <c r="K20" s="39">
+        <f>(($I16^2)*$I$12+($I$13^2)*E7)/($I$13^2+$I16^2)</f>
+        <v>1.0666923076923078</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B21" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="C21" s="39"/>
-    </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B22" s="27" t="s">
+      <c r="C21" s="38">
+        <f>MMULT(C7:E7,I6:I8)</f>
+        <v>1.2366999999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B22" s="26" t="s">
         <v>86</v>
       </c>
-      <c r="C22" s="39"/>
-    </row>
-    <row r="23" spans="2:11" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="C22" s="38">
+        <f>MMULT(C6:E6,I6:I8)</f>
+        <v>3.1219999999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" ht="16.2" x14ac:dyDescent="0.3">
       <c r="B23" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="C23" s="39"/>
-    </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B24" s="27" t="s">
+      <c r="C23" s="38">
+        <f>(C21^2)*(C3^2)+(C8^2)*(I6^2)+(D8^2)*(I7^2)+(E8^2)*(I8^2)</f>
+        <v>73.942008102499997</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B24" s="26" t="s">
         <v>88</v>
       </c>
-      <c r="C24" s="39"/>
+      <c r="C24" s="38">
+        <f>C22+C21*C2</f>
+        <v>21.672499999999999</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16186,481 +17538,909 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0F013D5-D7EC-47BC-8B70-D8F2F781193B}">
-  <dimension ref="B3:O24"/>
+  <dimension ref="B3:AD24"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q23" sqref="Q23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.140625" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" customWidth="1"/>
-    <col min="9" max="9" width="10.85546875" style="43"/>
-    <col min="10" max="10" width="13.42578125" customWidth="1"/>
+    <col min="7" max="7" width="14.109375" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" customWidth="1"/>
+    <col min="9" max="9" width="10.88671875" style="42"/>
+    <col min="10" max="10" width="13.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="5" spans="2:15" ht="18" x14ac:dyDescent="0.35">
-      <c r="B5" s="44" t="s">
+    <row r="5" spans="2:30" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="B5" s="43" t="s">
         <v>91</v>
       </c>
-      <c r="C5" s="45">
+      <c r="C5" s="44">
         <v>8.5</v>
       </c>
-      <c r="D5" s="44"/>
-      <c r="E5" s="45">
+      <c r="D5" s="43"/>
+      <c r="E5" s="44">
         <v>15.5</v>
       </c>
-      <c r="L5" s="44" t="s">
+      <c r="L5" s="43" t="s">
         <v>92</v>
       </c>
-      <c r="M5" s="46">
+      <c r="M5" s="45">
         <f>+L9</f>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:15" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="47" t="s">
+    <row r="6" spans="2:30" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="46" t="s">
         <v>93</v>
       </c>
-      <c r="C6" s="48" t="s">
+      <c r="C6" s="47" t="s">
         <v>94</v>
       </c>
-      <c r="D6" s="49" t="s">
+      <c r="D6" s="48" t="s">
         <v>95</v>
       </c>
-      <c r="E6" s="50" t="s">
+      <c r="E6" s="49" t="s">
         <v>96</v>
       </c>
-      <c r="F6" s="51" t="s">
+      <c r="F6" s="50" t="s">
         <v>97</v>
       </c>
-      <c r="G6" s="51" t="s">
+      <c r="G6" s="50" t="s">
         <v>98</v>
       </c>
-      <c r="H6" s="51" t="s">
+      <c r="H6" s="50" t="s">
         <v>99</v>
       </c>
-      <c r="I6" s="52" t="s">
+      <c r="I6" s="51" t="s">
         <v>100</v>
       </c>
-      <c r="J6" s="51" t="s">
+      <c r="J6" s="50" t="s">
         <v>101</v>
       </c>
-      <c r="K6" s="51" t="s">
+      <c r="K6" s="50" t="s">
         <v>102</v>
       </c>
-      <c r="L6" s="51" t="s">
+      <c r="L6" s="50" t="s">
         <v>103</v>
       </c>
-      <c r="M6" s="51" t="s">
+      <c r="M6" s="50" t="s">
         <v>104</v>
       </c>
-      <c r="N6" s="51" t="s">
+      <c r="N6" s="50" t="s">
         <v>105</v>
       </c>
-      <c r="O6" s="51" t="s">
+      <c r="O6" s="50" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B7" s="53">
+      <c r="Q6" s="46" t="s">
+        <v>93</v>
+      </c>
+      <c r="R6" s="47" t="s">
+        <v>94</v>
+      </c>
+      <c r="S6" s="48" t="s">
+        <v>95</v>
+      </c>
+      <c r="T6" s="49" t="s">
+        <v>96</v>
+      </c>
+      <c r="U6" s="50" t="s">
+        <v>97</v>
+      </c>
+      <c r="V6" s="50" t="s">
+        <v>98</v>
+      </c>
+      <c r="W6" s="50" t="s">
+        <v>99</v>
+      </c>
+      <c r="X6" s="51" t="s">
+        <v>100</v>
+      </c>
+      <c r="Y6" s="50" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z6" s="50" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA6" s="50" t="s">
+        <v>103</v>
+      </c>
+      <c r="AB6" s="50" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC6" s="50" t="s">
+        <v>105</v>
+      </c>
+      <c r="AD6" s="50" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="7" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="B7" s="52">
         <v>1</v>
       </c>
-      <c r="C7" s="53">
+      <c r="C7" s="52">
         <v>8.4</v>
       </c>
-      <c r="D7" s="54">
+      <c r="D7" s="53">
         <v>0.9</v>
       </c>
-      <c r="E7" s="53">
+      <c r="E7" s="52">
         <v>10</v>
       </c>
-      <c r="F7" s="53"/>
-      <c r="G7" s="5"/>
+      <c r="F7" s="52">
+        <f>C7-$C$5</f>
+        <v>-9.9999999999999645E-2</v>
+      </c>
+      <c r="G7" s="5">
+        <f>F7/D7</f>
+        <v>-0.11111111111111072</v>
+      </c>
       <c r="H7" s="5"/>
-      <c r="I7" s="55"/>
+      <c r="I7" s="54"/>
       <c r="J7" s="5"/>
       <c r="K7" s="5"/>
       <c r="L7" s="5"/>
-      <c r="M7" s="56"/>
+      <c r="M7" s="55"/>
       <c r="N7" s="5"/>
       <c r="O7" s="5"/>
-    </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B8" s="53">
+      <c r="Q7" s="52">
+        <v>6</v>
+      </c>
+      <c r="R7" s="52">
+        <v>12.4</v>
+      </c>
+      <c r="S7" s="53">
+        <v>0.6</v>
+      </c>
+      <c r="T7" s="52">
+        <v>12</v>
+      </c>
+      <c r="U7" s="52">
+        <f>R7-$C$5</f>
+        <v>3.9000000000000004</v>
+      </c>
+      <c r="V7" s="5">
+        <f>U7/S7</f>
+        <v>6.5000000000000009</v>
+      </c>
+      <c r="W7" s="5">
+        <f>U7*S7/T7</f>
+        <v>0.19500000000000003</v>
+      </c>
+      <c r="X7" s="54">
+        <f>POWER(S7,2)/T7</f>
+        <v>0.03</v>
+      </c>
+      <c r="Y7" s="5">
+        <f>SUM(W7)</f>
+        <v>0.19500000000000003</v>
+      </c>
+      <c r="Z7" s="5">
+        <f>SUM(X7)</f>
+        <v>0.03</v>
+      </c>
+      <c r="AA7" s="5">
+        <f>Y7*$E$5/(1+$E$5*Z7)</f>
+        <v>2.0631399317406149</v>
+      </c>
+      <c r="AB7" s="55" t="b">
+        <f>AA7&lt;V7</f>
+        <v>1</v>
+      </c>
+      <c r="AC7" s="5">
+        <f>(V7-$AB$14)*(POWER(S7,2)/T7)</f>
+        <v>9.6445346477239818E-2</v>
+      </c>
+      <c r="AD7" s="5">
+        <f>AC7/SUM(AC7:AC8)</f>
+        <v>0.45504787961696319</v>
+      </c>
+    </row>
+    <row r="8" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="B8" s="52">
         <v>2</v>
       </c>
-      <c r="C8" s="53">
+      <c r="C8" s="52">
         <v>6.5</v>
       </c>
-      <c r="D8" s="54">
+      <c r="D8" s="53">
         <v>1.4</v>
       </c>
-      <c r="E8" s="53">
+      <c r="E8" s="52">
         <v>6</v>
       </c>
-      <c r="F8" s="53"/>
-      <c r="G8" s="5"/>
+      <c r="F8" s="52">
+        <f t="shared" ref="F8:F12" si="0">C8-$C$5</f>
+        <v>-2</v>
+      </c>
+      <c r="G8" s="5">
+        <f t="shared" ref="G8:G12" si="1">F8/D8</f>
+        <v>-1.4285714285714286</v>
+      </c>
       <c r="H8" s="5"/>
-      <c r="I8" s="55"/>
+      <c r="I8" s="54"/>
       <c r="J8" s="5"/>
       <c r="K8" s="5"/>
       <c r="L8" s="5"/>
-      <c r="M8" s="56"/>
+      <c r="M8" s="55"/>
       <c r="N8" s="5"/>
       <c r="O8" s="5"/>
-    </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B9" s="53">
+      <c r="Q8" s="52">
+        <v>5</v>
+      </c>
+      <c r="R8" s="52">
+        <v>15.2</v>
+      </c>
+      <c r="S8" s="53">
+        <v>1.6</v>
+      </c>
+      <c r="T8" s="52">
+        <v>20</v>
+      </c>
+      <c r="U8" s="52">
+        <f>R8-$C$5</f>
+        <v>6.6999999999999993</v>
+      </c>
+      <c r="V8" s="5">
+        <f>U8/S8</f>
+        <v>4.1874999999999991</v>
+      </c>
+      <c r="W8" s="5">
+        <f t="shared" ref="W8:W12" si="2">U8*S8/T8</f>
+        <v>0.53599999999999992</v>
+      </c>
+      <c r="X8" s="54">
+        <f t="shared" ref="X8:X12" si="3">POWER(S8,2)/T8</f>
+        <v>0.12800000000000003</v>
+      </c>
+      <c r="Y8" s="5">
+        <f>SUM(W7:W8)</f>
+        <v>0.73099999999999998</v>
+      </c>
+      <c r="Z8" s="5">
+        <f>SUM(X7:X8)</f>
+        <v>0.15800000000000003</v>
+      </c>
+      <c r="AA8" s="5">
+        <f t="shared" ref="AA8:AA12" si="4">Y8*$E$5/(1+$E$5*Z8)</f>
+        <v>3.2851551174253402</v>
+      </c>
+      <c r="AB8" s="55" t="b">
+        <f t="shared" ref="AB8:AB12" si="5">AA8&lt;V8</f>
+        <v>1</v>
+      </c>
+      <c r="AC8" s="5">
+        <f t="shared" ref="AC8:AC12" si="6">(V8-$AB$14)*(POWER(S8,2)/T8)</f>
+        <v>0.11550014496955638</v>
+      </c>
+      <c r="AD8" s="5">
+        <f>AC8/SUM(AC7:AC8)</f>
+        <v>0.54495212038303675</v>
+      </c>
+    </row>
+    <row r="9" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="B9" s="52">
         <v>3</v>
       </c>
-      <c r="C9" s="53">
+      <c r="C9" s="52">
         <v>9.8000000000000007</v>
       </c>
-      <c r="D9" s="54">
+      <c r="D9" s="53">
         <v>1.1000000000000001</v>
       </c>
-      <c r="E9" s="53">
+      <c r="E9" s="52">
         <v>14</v>
       </c>
-      <c r="F9" s="53"/>
-      <c r="G9" s="5"/>
+      <c r="F9" s="52">
+        <f t="shared" si="0"/>
+        <v>1.3000000000000007</v>
+      </c>
+      <c r="G9" s="5">
+        <f t="shared" si="1"/>
+        <v>1.1818181818181823</v>
+      </c>
       <c r="H9" s="5"/>
-      <c r="I9" s="55"/>
+      <c r="I9" s="54"/>
       <c r="J9" s="5"/>
       <c r="K9" s="5"/>
       <c r="L9" s="5"/>
-      <c r="M9" s="56"/>
-      <c r="N9" s="57"/>
-      <c r="O9" s="57"/>
-    </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B10" s="53">
+      <c r="M9" s="55"/>
+      <c r="N9" s="56"/>
+      <c r="O9" s="56"/>
+      <c r="Q9" s="52">
+        <v>3</v>
+      </c>
+      <c r="R9" s="52">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="S9" s="53">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="T9" s="52">
+        <v>14</v>
+      </c>
+      <c r="U9" s="52">
+        <f>R9-$C$5</f>
+        <v>1.3000000000000007</v>
+      </c>
+      <c r="V9" s="5">
+        <f>U9/S9</f>
+        <v>1.1818181818181823</v>
+      </c>
+      <c r="W9" s="5">
+        <f t="shared" si="2"/>
+        <v>0.1021428571428572</v>
+      </c>
+      <c r="X9" s="54">
+        <f t="shared" si="3"/>
+        <v>8.6428571428571438E-2</v>
+      </c>
+      <c r="Y9" s="5">
+        <f>SUM(W7:W9)</f>
+        <v>0.83314285714285718</v>
+      </c>
+      <c r="Z9" s="5">
+        <f>SUM(X7:X9)</f>
+        <v>0.24442857142857147</v>
+      </c>
+      <c r="AA9" s="5">
+        <f t="shared" si="4"/>
+        <v>2.6967378171566652</v>
+      </c>
+      <c r="AB9" s="55" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AC9" s="5">
+        <f t="shared" si="6"/>
+        <v>-0.18178840657747578</v>
+      </c>
+      <c r="AD9" s="5"/>
+    </row>
+    <row r="10" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="B10" s="52">
         <v>4</v>
       </c>
-      <c r="C10" s="53">
+      <c r="C10" s="52">
         <v>7</v>
       </c>
-      <c r="D10" s="54">
+      <c r="D10" s="53">
         <v>0.8</v>
       </c>
-      <c r="E10" s="53">
+      <c r="E10" s="52">
         <v>8</v>
       </c>
-      <c r="F10" s="53"/>
-      <c r="G10" s="5"/>
+      <c r="F10" s="52">
+        <f>C10-$C$5</f>
+        <v>-1.5</v>
+      </c>
+      <c r="G10" s="5">
+        <f t="shared" si="1"/>
+        <v>-1.875</v>
+      </c>
       <c r="H10" s="5"/>
-      <c r="I10" s="55"/>
+      <c r="I10" s="54"/>
       <c r="J10" s="5"/>
       <c r="K10" s="5"/>
       <c r="L10" s="5"/>
-      <c r="M10" s="56"/>
+      <c r="M10" s="55"/>
       <c r="N10" s="5"/>
       <c r="O10" s="5"/>
-    </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B11" s="53">
+      <c r="Q10" s="52">
+        <v>1</v>
+      </c>
+      <c r="R10" s="52">
+        <v>8.4</v>
+      </c>
+      <c r="S10" s="53">
+        <v>0.9</v>
+      </c>
+      <c r="T10" s="52">
+        <v>10</v>
+      </c>
+      <c r="U10" s="52">
+        <f>R10-$C$5</f>
+        <v>-9.9999999999999645E-2</v>
+      </c>
+      <c r="V10" s="5">
+        <f>U10/S10</f>
+        <v>-0.11111111111111072</v>
+      </c>
+      <c r="W10" s="5">
+        <f t="shared" si="2"/>
+        <v>-8.9999999999999681E-3</v>
+      </c>
+      <c r="X10" s="54">
+        <f t="shared" si="3"/>
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="Y10" s="5">
+        <f>SUM(W7:W10)</f>
+        <v>0.82414285714285718</v>
+      </c>
+      <c r="Z10" s="5">
+        <f>SUM(X7:X10)</f>
+        <v>0.32542857142857146</v>
+      </c>
+      <c r="AA10" s="5">
+        <f t="shared" si="4"/>
+        <v>2.1134864922356944</v>
+      </c>
+      <c r="AB10" s="55" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AC10" s="5">
+        <f t="shared" si="6"/>
+        <v>-0.27509756451145251</v>
+      </c>
+      <c r="AD10" s="5"/>
+    </row>
+    <row r="11" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="B11" s="52">
         <v>5</v>
       </c>
-      <c r="C11" s="53">
+      <c r="C11" s="52">
         <v>15.2</v>
       </c>
-      <c r="D11" s="54">
+      <c r="D11" s="53">
         <v>1.6</v>
       </c>
-      <c r="E11" s="53">
+      <c r="E11" s="52">
         <v>20</v>
       </c>
-      <c r="F11" s="53"/>
-      <c r="G11" s="5"/>
+      <c r="F11" s="52">
+        <f t="shared" si="0"/>
+        <v>6.6999999999999993</v>
+      </c>
+      <c r="G11" s="5">
+        <f t="shared" si="1"/>
+        <v>4.1874999999999991</v>
+      </c>
       <c r="H11" s="5"/>
-      <c r="I11" s="55"/>
+      <c r="I11" s="54"/>
       <c r="J11" s="5"/>
       <c r="K11" s="5"/>
       <c r="L11" s="5"/>
-      <c r="M11" s="56"/>
+      <c r="M11" s="55"/>
       <c r="N11" s="5"/>
       <c r="O11" s="5"/>
-    </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B12" s="53">
+      <c r="Q11" s="52">
+        <v>2</v>
+      </c>
+      <c r="R11" s="52">
+        <v>6.5</v>
+      </c>
+      <c r="S11" s="53">
+        <v>1.4</v>
+      </c>
+      <c r="T11" s="52">
         <v>6</v>
       </c>
-      <c r="C12" s="53">
+      <c r="U11" s="52">
+        <f>R11-$C$5</f>
+        <v>-2</v>
+      </c>
+      <c r="V11" s="5">
+        <f>U11/S11</f>
+        <v>-1.4285714285714286</v>
+      </c>
+      <c r="W11" s="5">
+        <f t="shared" si="2"/>
+        <v>-0.46666666666666662</v>
+      </c>
+      <c r="X11" s="54">
+        <f t="shared" si="3"/>
+        <v>0.32666666666666661</v>
+      </c>
+      <c r="Y11" s="5">
+        <f>W7:W11</f>
+        <v>-0.46666666666666662</v>
+      </c>
+      <c r="Z11" s="5">
+        <f>SUM(X7:X11)</f>
+        <v>0.65209523809523806</v>
+      </c>
+      <c r="AA11" s="5">
+        <f t="shared" si="4"/>
+        <v>-0.65121303969441424</v>
+      </c>
+      <c r="AB11" s="55" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AC11" s="5">
+        <f t="shared" si="6"/>
+        <v>-1.5398173383589442</v>
+      </c>
+      <c r="AD11" s="5"/>
+    </row>
+    <row r="12" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="B12" s="52">
+        <v>6</v>
+      </c>
+      <c r="C12" s="52">
         <v>12.4</v>
       </c>
-      <c r="D12" s="54">
+      <c r="D12" s="53">
         <v>0.6</v>
       </c>
-      <c r="E12" s="53">
+      <c r="E12" s="52">
         <v>12</v>
       </c>
-      <c r="F12" s="53"/>
-      <c r="G12" s="5"/>
+      <c r="F12" s="52">
+        <f t="shared" si="0"/>
+        <v>3.9000000000000004</v>
+      </c>
+      <c r="G12" s="5">
+        <f t="shared" si="1"/>
+        <v>6.5000000000000009</v>
+      </c>
       <c r="H12" s="5"/>
-      <c r="I12" s="55"/>
+      <c r="I12" s="54"/>
       <c r="J12" s="5"/>
       <c r="K12" s="5"/>
       <c r="L12" s="5"/>
-      <c r="M12" s="56"/>
+      <c r="M12" s="55"/>
       <c r="N12" s="5"/>
       <c r="O12" s="5"/>
-    </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q12" s="52">
+        <v>4</v>
+      </c>
+      <c r="R12" s="52">
+        <v>7</v>
+      </c>
+      <c r="S12" s="53">
+        <v>0.8</v>
+      </c>
+      <c r="T12" s="52">
+        <v>8</v>
+      </c>
+      <c r="U12" s="52">
+        <f>R12-$C$5</f>
+        <v>-1.5</v>
+      </c>
+      <c r="V12" s="5">
+        <f>U12/S12</f>
+        <v>-1.875</v>
+      </c>
+      <c r="W12" s="5">
+        <f t="shared" si="2"/>
+        <v>-0.15000000000000002</v>
+      </c>
+      <c r="X12" s="54">
+        <f t="shared" si="3"/>
+        <v>8.0000000000000016E-2</v>
+      </c>
+      <c r="Y12" s="5">
+        <f>W7:W12</f>
+        <v>-0.15000000000000002</v>
+      </c>
+      <c r="Z12" s="5">
+        <f>SUM(X7:X12)</f>
+        <v>0.73209523809523813</v>
+      </c>
+      <c r="AA12" s="5">
+        <f t="shared" si="4"/>
+        <v>-0.18829758925093618</v>
+      </c>
+      <c r="AB12" s="55" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AC12" s="5">
+        <f t="shared" si="6"/>
+        <v>-0.4128124093940273</v>
+      </c>
+      <c r="AD12" s="5"/>
+    </row>
+    <row r="14" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="AB14" s="74">
+        <f>AA8</f>
+        <v>3.2851551174253402</v>
+      </c>
+    </row>
+    <row r="15" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>107</v>
       </c>
-      <c r="E15" s="42" t="s">
+      <c r="E15" s="41" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="17" spans="2:15" ht="18" x14ac:dyDescent="0.35">
-      <c r="B17" s="44" t="s">
+    <row r="17" spans="2:15" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="B17" s="43" t="s">
         <v>91</v>
       </c>
-      <c r="C17" s="45">
+      <c r="C17" s="44">
         <v>8.5</v>
       </c>
-      <c r="D17" s="44"/>
-      <c r="E17" s="45">
+      <c r="D17" s="43"/>
+      <c r="E17" s="44">
         <v>15.5</v>
       </c>
-      <c r="L17" s="44" t="s">
+      <c r="L17" s="43" t="s">
         <v>92</v>
       </c>
-      <c r="M17" s="46">
+      <c r="M17" s="45">
         <f>+L21</f>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:15" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="47" t="s">
+    <row r="18" spans="2:15" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="46" t="s">
         <v>93</v>
       </c>
-      <c r="C18" s="48" t="s">
+      <c r="C18" s="47" t="s">
         <v>94</v>
       </c>
-      <c r="D18" s="49" t="s">
+      <c r="D18" s="48" t="s">
         <v>95</v>
       </c>
-      <c r="E18" s="50" t="s">
+      <c r="E18" s="49" t="s">
         <v>96</v>
       </c>
-      <c r="F18" s="51" t="s">
+      <c r="F18" s="50" t="s">
         <v>97</v>
       </c>
-      <c r="G18" s="51" t="s">
+      <c r="G18" s="50" t="s">
         <v>98</v>
       </c>
-      <c r="H18" s="51" t="s">
+      <c r="H18" s="50" t="s">
         <v>99</v>
       </c>
-      <c r="I18" s="52" t="s">
+      <c r="I18" s="51" t="s">
         <v>100</v>
       </c>
-      <c r="J18" s="51" t="s">
+      <c r="J18" s="50" t="s">
         <v>101</v>
       </c>
-      <c r="K18" s="51" t="s">
+      <c r="K18" s="50" t="s">
         <v>102</v>
       </c>
-      <c r="L18" s="51" t="s">
+      <c r="L18" s="50" t="s">
         <v>103</v>
       </c>
-      <c r="M18" s="51" t="s">
+      <c r="M18" s="50" t="s">
         <v>104</v>
       </c>
-      <c r="N18" s="51" t="s">
+      <c r="N18" s="50" t="s">
         <v>105</v>
       </c>
-      <c r="O18" s="51" t="s">
+      <c r="O18" s="50" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B19" s="53">
+    <row r="19" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B19" s="52">
         <v>1</v>
       </c>
-      <c r="C19" s="53">
+      <c r="C19" s="52">
         <v>8.4</v>
       </c>
-      <c r="D19" s="54">
+      <c r="D19" s="53">
         <v>0.9</v>
       </c>
-      <c r="E19" s="53">
+      <c r="E19" s="52">
         <v>10</v>
       </c>
-      <c r="F19" s="53"/>
+      <c r="F19" s="52"/>
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
-      <c r="I19" s="55"/>
+      <c r="I19" s="54"/>
       <c r="J19" s="5"/>
       <c r="K19" s="5"/>
       <c r="L19" s="5"/>
-      <c r="M19" s="56"/>
-      <c r="N19" s="5"/>
-      <c r="O19" s="5"/>
-    </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B20" s="53">
+      <c r="M19" s="55"/>
+      <c r="N19" s="5">
+        <f>AC7</f>
+        <v>9.6445346477239818E-2</v>
+      </c>
+      <c r="O19" s="5">
+        <f>N19/SUM($N$19:$N$24)</f>
+        <v>-4.3887264795883951E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B20" s="52">
         <v>2</v>
       </c>
-      <c r="C20" s="53">
+      <c r="C20" s="52">
         <v>6.5</v>
       </c>
-      <c r="D20" s="54">
+      <c r="D20" s="53">
         <v>1.4</v>
       </c>
-      <c r="E20" s="53">
+      <c r="E20" s="52">
         <v>6</v>
       </c>
-      <c r="F20" s="53"/>
+      <c r="F20" s="52"/>
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>
-      <c r="I20" s="55"/>
+      <c r="I20" s="54"/>
       <c r="J20" s="5"/>
       <c r="K20" s="5"/>
       <c r="L20" s="5"/>
-      <c r="M20" s="56"/>
-      <c r="N20" s="5"/>
-      <c r="O20" s="5"/>
-    </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B21" s="53">
+      <c r="M20" s="55"/>
+      <c r="N20" s="5">
+        <f t="shared" ref="N20:N24" si="7">AC8</f>
+        <v>0.11550014496955638</v>
+      </c>
+      <c r="O20" s="5">
+        <f t="shared" ref="O20:O24" si="8">N20/SUM($N$19:$N$24)</f>
+        <v>-5.2558113287903808E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B21" s="52">
         <v>3</v>
       </c>
-      <c r="C21" s="53">
+      <c r="C21" s="52">
         <v>9.8000000000000007</v>
       </c>
-      <c r="D21" s="54">
+      <c r="D21" s="53">
         <v>1.1000000000000001</v>
       </c>
-      <c r="E21" s="53">
+      <c r="E21" s="52">
         <v>14</v>
       </c>
-      <c r="F21" s="53"/>
+      <c r="F21" s="52"/>
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
-      <c r="I21" s="55"/>
+      <c r="I21" s="54"/>
       <c r="J21" s="5"/>
       <c r="K21" s="5"/>
       <c r="L21" s="5"/>
-      <c r="M21" s="56"/>
-      <c r="N21" s="57"/>
-      <c r="O21" s="57"/>
-    </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B22" s="53">
+      <c r="M21" s="55"/>
+      <c r="N21" s="5">
+        <f t="shared" si="7"/>
+        <v>-0.18178840657747578</v>
+      </c>
+      <c r="O21" s="5">
+        <f t="shared" si="8"/>
+        <v>8.2722456061374294E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B22" s="52">
         <v>4</v>
       </c>
-      <c r="C22" s="53">
+      <c r="C22" s="52">
         <v>7</v>
       </c>
-      <c r="D22" s="54">
+      <c r="D22" s="53">
         <v>0.8</v>
       </c>
-      <c r="E22" s="53">
+      <c r="E22" s="52">
         <v>8</v>
       </c>
-      <c r="F22" s="53"/>
+      <c r="F22" s="52"/>
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
-      <c r="I22" s="55"/>
+      <c r="I22" s="54"/>
       <c r="J22" s="5"/>
       <c r="K22" s="5"/>
       <c r="L22" s="5"/>
-      <c r="M22" s="56"/>
-      <c r="N22" s="5"/>
-      <c r="O22" s="5"/>
-    </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B23" s="53">
+      <c r="M22" s="55"/>
+      <c r="N22" s="5">
+        <f t="shared" si="7"/>
+        <v>-0.27509756451145251</v>
+      </c>
+      <c r="O22" s="5">
+        <f t="shared" si="8"/>
+        <v>0.12518260444288065</v>
+      </c>
+    </row>
+    <row r="23" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B23" s="52">
         <v>5</v>
       </c>
-      <c r="C23" s="53">
+      <c r="C23" s="52">
         <v>15.2</v>
       </c>
-      <c r="D23" s="54">
+      <c r="D23" s="53">
         <v>1.6</v>
       </c>
-      <c r="E23" s="53">
+      <c r="E23" s="52">
         <v>20</v>
       </c>
-      <c r="F23" s="53"/>
+      <c r="F23" s="52"/>
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
-      <c r="I23" s="55"/>
+      <c r="I23" s="54"/>
       <c r="J23" s="5"/>
       <c r="K23" s="5"/>
       <c r="L23" s="5"/>
-      <c r="M23" s="56"/>
-      <c r="N23" s="5"/>
-      <c r="O23" s="5"/>
-    </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B24" s="53">
+      <c r="M23" s="55"/>
+      <c r="N23" s="5">
+        <f t="shared" si="7"/>
+        <v>-1.5398173383589442</v>
+      </c>
+      <c r="O23" s="5">
+        <f t="shared" si="8"/>
+        <v>0.70069084444421659</v>
+      </c>
+    </row>
+    <row r="24" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B24" s="52">
         <v>6</v>
       </c>
-      <c r="C24" s="53">
+      <c r="C24" s="52">
         <v>12.4</v>
       </c>
-      <c r="D24" s="54">
+      <c r="D24" s="53">
         <v>0.6</v>
       </c>
-      <c r="E24" s="53">
+      <c r="E24" s="52">
         <v>12</v>
       </c>
-      <c r="F24" s="53"/>
+      <c r="F24" s="52"/>
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
-      <c r="I24" s="55"/>
+      <c r="I24" s="54"/>
       <c r="J24" s="5"/>
       <c r="K24" s="5"/>
       <c r="L24" s="5"/>
-      <c r="M24" s="56"/>
-      <c r="N24" s="5"/>
-      <c r="O24" s="5"/>
+      <c r="M24" s="55"/>
+      <c r="N24" s="5">
+        <f t="shared" si="7"/>
+        <v>-0.4128124093940273</v>
+      </c>
+      <c r="O24" s="5">
+        <f t="shared" si="8"/>
+        <v>0.18784947313531625</v>
+      </c>
     </row>
   </sheetData>
-  <sortState ref="B7:O12">
-    <sortCondition ref="B7:B12"/>
+  <sortState ref="Q7:V12">
+    <sortCondition descending="1" ref="V7:V12"/>
   </sortState>
   <conditionalFormatting sqref="M7">
-    <cfRule type="cellIs" dxfId="7" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="15" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="16" operator="equal">
       <formula>"SI"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M8:M12">
-    <cfRule type="cellIs" dxfId="5" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="13" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="14" operator="equal">
       <formula>"SI"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M19">
+    <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
+      <formula>"NO"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="8" operator="equal">
+      <formula>"SI"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M20:M24">
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
+      <formula>"NO"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
+      <formula>"SI"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB7:AB12">
     <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
-      <formula>"SI"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M20:M24">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
-      <formula>"NO"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>"SI"</formula>
     </cfRule>
   </conditionalFormatting>
